--- a/kiba_labs_data_sheet_new.xlsx
+++ b/kiba_labs_data_sheet_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nabeel\AIDIPH-LIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353BEC82-10AE-4251-9D78-7E1745198720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4142181-1760-4285-8CB0-1CB7232F2609}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="18" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organisation_details" sheetId="1" r:id="rId1"/>
@@ -41,6 +41,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -71,7 +82,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Name of the organisations.</t>
+Name of the organisations. Can be more than 50 char.
+Eg: kiba labs</t>
         </r>
       </text>
     </comment>
@@ -95,7 +107,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Name of the organisations authorised point of communication</t>
+Name of the organisations authorised point of communication. 
+Can be more than 50 char. Eg: rahul kumar</t>
         </r>
       </text>
     </comment>
@@ -119,7 +132,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-position of legal authority head of the company</t>
+position of legal authority head of the company. Eg: hod, ceo, etc. it</t>
         </r>
       </text>
     </comment>
@@ -143,7 +156,9 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-email of the authorized signatory email</t>
+email of the authorized signatory email. 
+Should be valid email. 
+Eg: abc@cde.com or .in</t>
         </r>
       </text>
     </comment>
@@ -215,7 +230,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-company identification number</t>
+company identification number. 21 digit alphanumeric and should start with L or U.</t>
         </r>
       </text>
     </comment>
@@ -263,7 +278,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-enter your bank code</t>
+enter your bank code, 
+5 digit unique code assigned for a particular bank. Eg :52354</t>
         </r>
       </text>
     </comment>
@@ -287,7 +303,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-Unique code for a bank that is used for international money transfers</t>
+Unique code for a bank that is used for international money transfers. 
+Eg: HDFCINBB (usually it is 8 to 11 characters long)</t>
         </r>
       </text>
     </comment>
@@ -311,7 +328,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-account number of your respective bank</t>
+account number of your respective bank. Usually between 9 to 18 characters</t>
         </r>
       </text>
     </comment>
@@ -326,7 +343,7 @@
             <charset val="1"/>
           </rPr>
           <t>kl000039:
-state your account type eg: savings , current</t>
+state your account type eg: savings , current and salary.</t>
         </r>
       </text>
     </comment>
@@ -350,7 +367,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-state your banks ifsc code</t>
+state your banks ifsc code with 11 digit with alphanumeric code.</t>
         </r>
       </text>
     </comment>
@@ -422,7 +439,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-permanent account number</t>
+permanent account number.
+It will be 10 digit alphanumeric code. </t>
         </r>
       </text>
     </comment>
@@ -446,7 +464,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-tax deduction and collection account number</t>
+tax deduction and collection account number is a 10 digit alphanumeric no. issued by ITD</t>
         </r>
       </text>
     </comment>
@@ -498,6 +516,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{22DA36A4-CF09-4CBD-839A-233BF87A73D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+5-10 digit unique code based on your organisation.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V2" authorId="0" shapeId="0" xr:uid="{74FE5A3A-ED0E-47EB-868F-0660C4F46D39}">
       <text>
         <r>
@@ -518,7 +560,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The "PF establishment ID" refers to a unique identification number assigned to an establishment (employer) that is registered with the Employees' Provident Fund Organisation (EPFO) in India. </t>
+The "PF establishment ID" refers to a unique identification number assigned to an establishment (employer) that is registered with the Employees' Provident Fund Organisation (EPFO) in India. 
+It is 7 digit unique number provided to an organisation</t>
         </r>
       </text>
     </comment>
@@ -542,7 +585,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The PF number, or Employees' Provident Fund number, is a unique identification number assigned to an individual who is a member of the Employees' Provident Fund (EPF) scheme in India.</t>
+The PF number, or Employees' Provident Fund number, is a unique identification number assigned to an individual who is a member of the Employees' Provident Fund (EPF) scheme in India.(22 digit number) </t>
         </r>
       </text>
     </comment>
@@ -590,7 +633,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-The PF number, or Employees' Provident Fund number, is a unique identification number assigned to an individual who is a member of the Employees' Provident Fund (EPF) scheme in India.</t>
+The PF number, or Employees' Provident Fund number, is a unique identification number assigned to an individual who is a member of the Employees' Provident Fund (EPF) scheme in India. It is a 17 digit unique number.</t>
         </r>
       </text>
     </comment>
@@ -735,6 +778,356 @@
           </rPr>
           <t xml:space="preserve">
 Date when you registered for the lwf</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1BDC619C-BE29-437A-B220-1695DBD9E514}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here we have these enums : 
+sick
+casual
+earned
+maternity
+paternity
+unpaid
+compensatory
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D4E043F8-24DC-4517-810F-D8F61074720E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in the enum we have these values: 
+monthly
+quaterly
+yearly
+anniversary.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{C9883C91-B1AC-4E09-98F5-C1902E3B2B95}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in the enum we have these values: 
+public
+religious
+regional
+company_specific
+optional</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{298D242E-800C-479C-B4C6-31D3B34CC774}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in the enum we have these values: 
+yearly_fixed_date
+yearly_variable_date
+one_time</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L2" authorId="0" shapeId="0" xr:uid="{47683BCC-BB60-4A2A-9F35-9B768C3CD210}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+in this enum we have these values:
+first_half
+second_half
+forenoon
+afternoon</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{967D3BD6-9ECC-4938-93FF-DCE4ECFA5544}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here we can pass in the array and in the enum we have these values: 
+biometric
+mobile_app
+web_app</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{6CA69AF8-8797-42CD-B17E-94BBEA732313}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in the enum we have these values: 
+fixed
+flexible
+rotational</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="0" shapeId="0" xr:uid="{836D737D-11EE-4625-8780-15BC8DDEC616}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in this enum we have these values: 
+daily
+weekly
+monthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U2" authorId="0" shapeId="0" xr:uid="{6111D020-F06C-4677-BC47-E1A03B5B9710}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in this enum we have these values: 
+none 
+leave_deduction
+salary_deduction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V2" authorId="0" shapeId="0" xr:uid="{72C490CF-B7BB-43F9-B364-4961C1B2EFB4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in this enum we have these values: 
+sick
+casual
+earned
+maternity
+paternity
+unpaid
+compensatory</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{5A4BF538-BB19-4165-88A9-F7CE644989C1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in this enum we have these values: 
+fixed
+flexible
+rotational</t>
         </r>
       </text>
     </comment>
@@ -864,7 +1257,7 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-state your state code here</t>
+state your state code here. State your 3 digit state code: eg: Bihar: bhr</t>
         </r>
       </text>
     </comment>
@@ -913,6 +1306,30 @@
           </rPr>
           <t xml:space="preserve">
 Enter the name of the location</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E32C9EAC-FF64-4896-A92B-13E7CB37E255}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Enter you 5 digit unique location code :eg: for lucknow: -&gt; luk01</t>
         </r>
       </text>
     </comment>
@@ -1142,6 +1559,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{B67096B6-2DB6-4669-823A-B5ECBD965A40}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+upto 5 digit unique type code.</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="C2" authorId="0" shapeId="0" xr:uid="{EBED18F0-4AD1-4040-BE7B-7F681E67B19B}">
       <text>
         <r>
@@ -1234,7 +1675,8 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Enter your department cost center code</t>
+Enter your department cost center code. Upto 5 digit unique code.
+</t>
         </r>
       </text>
     </comment>
@@ -1259,6 +1701,404 @@
           </rPr>
           <t xml:space="preserve">
 provide description what this department specifically does.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{05BDE5DF-E780-47AD-A070-D08C518750C5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This is the employment type: 
+permanent, contract, intern, consultant, probation</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{AA039003-9099-4A2B-9706-A43D7ED31A35}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+we have two bank type that is : organization_bank, and employee_bank, so here in the employees details we will put in employees bank.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{4606A8E4-7804-4326-9A47-88093A52777A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+we have three account type: savings, current, salary</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="0" shapeId="0" xr:uid="{5794C817-B062-45CD-8E84-B6999BEFA537}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+here we have enum: 
+Bank_transfer,
+cash
+cheque, 
+other</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{18A5546C-650B-4136-BE2F-FDAA8D1153E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+It is a 22 digit alphanumeric code. 
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{D0E79D16-4AA3-4990-88D4-6D5429D95372}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Here for the component category we have 4 enums: 
+earnings, deductions, benefits, reimbursements.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{D7CBEF7F-3877-4C91-BF9C-65B233244116}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Here we have 3 enums : fixed, variable, adhoc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{2EFA8271-E653-4A56-AD67-E8BCB4BB1A9B}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It is an enum having these values , FIXED, PERCENTAGE, FORMULA, HOURLY, DAILY, PER_UNIT. By default the value is : 
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J2" authorId="0" shapeId="0" xr:uid="{E95B72A8-E282-423B-A346-58816F4EC443}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+It is an enum having these values: montly, quaterly, annual, one_time</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{76A06F7B-7BB0-4813-9124-9B8CFD53EC8D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in the enum we have these values: 
+employment, leave, attendance, payroll, benefits, compliance, performance, training, it_security, general.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{09DFAF01-3907-4E18-9D58-05098E7CEFE0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+this accepts a json value.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{F3D4257C-827F-45B9-AAE6-C214115DB4BB}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here we have these enum: 
+STRING
+NUMBER 
+BOOLEAN
+DATE 
+TIME
+DATETIME
+JSON 
+ARRAY
+SELECT 
+MULTISELECT 
+TEXTAREA
+PASSWORD
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>kl000039</author>
+  </authors>
+  <commentList>
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{9417E65B-4DD1-4983-A2EB-3315DDAF932C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>kl000039:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+here in the enum we have these values: 
+electronic 
+physical
+verbal
+other</t>
         </r>
       </text>
     </comment>
@@ -1267,7 +2107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="478">
   <si>
     <t>ORGANISATIONS ESTABLISHMENT AND FINANCIAL DETAILS</t>
   </si>
@@ -1365,39 +2205,45 @@
     <t>lwf_registration_date</t>
   </si>
   <si>
-    <t>Kiba labs pvt ltd.</t>
+    <t>kiba labs pvt ltd</t>
+  </si>
+  <si>
+    <t>rahul kumar</t>
+  </si>
+  <si>
+    <t>director</t>
+  </si>
+  <si>
+    <t>rahul.kumar@kibalabs.in</t>
+  </si>
+  <si>
+    <t>Chandrasekhar Sharma</t>
+  </si>
+  <si>
+    <t>U72900BR2022PTC055919</t>
+  </si>
+  <si>
+    <t>organization_bank</t>
+  </si>
+  <si>
+    <t>HDFC Bank Limited</t>
+  </si>
+  <si>
+    <t>HDFCINB</t>
+  </si>
+  <si>
+    <t>savings</t>
+  </si>
+  <si>
+    <t>HDFC0000123</t>
+  </si>
+  <si>
+    <t>Bailey Road, Patna</t>
   </si>
   <si>
     <t>Rahul Kumar</t>
   </si>
   <si>
-    <t>rahul.kumar@kibalabs.in</t>
-  </si>
-  <si>
-    <t>Chandrasekhar Sharma</t>
-  </si>
-  <si>
-    <t>U72900BR2022PTC055919</t>
-  </si>
-  <si>
-    <t>Private Bank</t>
-  </si>
-  <si>
-    <t>HDFC Bank Limited</t>
-  </si>
-  <si>
-    <t>HDFCINBBXXX</t>
-  </si>
-  <si>
-    <t>Saving account</t>
-  </si>
-  <si>
-    <t>HDFC0000123</t>
-  </si>
-  <si>
-    <t>Bailey Road, Patna</t>
-  </si>
-  <si>
     <t>ABCDE1234F</t>
   </si>
   <si>
@@ -1410,16 +2256,10 @@
     <t>Patna, Bihar, India</t>
   </si>
   <si>
-    <t xml:space="preserve"> IT-2024-BR</t>
-  </si>
-  <si>
-    <t>BR/PTNA/9876543</t>
-  </si>
-  <si>
-    <t>BR/PTNA/9876543/0001</t>
-  </si>
-  <si>
-    <t>BR/61000456780001018</t>
+    <t xml:space="preserve"> IT2024BR</t>
+  </si>
+  <si>
+    <t>BRPTN50411001117654321</t>
   </si>
   <si>
     <t>BRPTN123456789</t>
@@ -1428,7 +2268,10 @@
     <t>BRPTN123456790</t>
   </si>
   <si>
-    <t>BR-LWF-456789</t>
+    <t>BRLWF456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
   </si>
   <si>
     <t>ORGANISATION LOCATIONS (MENTION ALL THE BRANCHES)</t>
@@ -1455,6 +2298,9 @@
     <t>location_name</t>
   </si>
   <si>
+    <t>location_code</t>
+  </si>
+  <si>
     <t>is_head_office</t>
   </si>
   <si>
@@ -1470,13 +2316,28 @@
     <t>address_line_2</t>
   </si>
   <si>
+    <t>locality</t>
+  </si>
+  <si>
     <t>city</t>
   </si>
   <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gstin</t>
+  </si>
+  <si>
     <t>timezone</t>
   </si>
   <si>
-    <t>IN</t>
+    <t>ind</t>
   </si>
   <si>
     <t>India</t>
@@ -1485,7 +2346,7 @@
     <t>INR</t>
   </si>
   <si>
-    <t>BR</t>
+    <t>bhr</t>
   </si>
   <si>
     <t>Bihar</t>
@@ -1494,6 +2355,9 @@
     <t>Patna</t>
   </si>
   <si>
+    <t>pat01</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -1503,9 +2367,15 @@
     <t xml:space="preserve"> fashion factory, 3rd floor</t>
   </si>
   <si>
+    <t>sk.hassan2013@gmail.com</t>
+  </si>
+  <si>
     <t>Asia/Kolkata</t>
   </si>
   <si>
+    <t>pat02</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
@@ -1515,12 +2385,18 @@
     <t>Near Sai Mandir Spti building</t>
   </si>
   <si>
+    <t>nabeelhassan17808@gmai.com</t>
+  </si>
+  <si>
     <t>ORGANISATIONS DEPARTMENT INFORMATION</t>
   </si>
   <si>
     <t>type_name</t>
   </si>
   <si>
+    <t>type_code</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -1530,6 +2406,9 @@
     <t>dept_name</t>
   </si>
   <si>
+    <t>parent_dept_type_code</t>
+  </si>
+  <si>
     <t>parent_dept_code</t>
   </si>
   <si>
@@ -1542,6 +2421,9 @@
     <t>Software Engineer</t>
   </si>
   <si>
+    <t>sr01</t>
+  </si>
+  <si>
     <t>Develops and maintains company software products</t>
   </si>
   <si>
@@ -1551,429 +2433,519 @@
     <t>Software Development</t>
   </si>
   <si>
+    <t>it01</t>
+  </si>
+  <si>
+    <t>IT002</t>
+  </si>
+  <si>
+    <t>CC1004</t>
+  </si>
+  <si>
+    <t>Application Development</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Handles software, hardware, and security systems</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>CC1003</t>
+  </si>
+  <si>
+    <t>IT Infrastructure &amp; Support</t>
+  </si>
+  <si>
+    <t>EMPLOYEE ONBOARDING DATA</t>
+  </si>
+  <si>
+    <t>title_name</t>
+  </si>
+  <si>
+    <t>title_code</t>
+  </si>
+  <si>
+    <t>title_description</t>
+  </si>
+  <si>
+    <t>grade_level</t>
+  </si>
+  <si>
+    <t>employee_number</t>
+  </si>
+  <si>
+    <t>dept_type_code</t>
+  </si>
+  <si>
+    <t>work_location_code</t>
+  </si>
+  <si>
+    <t>work_location_city</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>official_email</t>
+  </si>
+  <si>
+    <t>personal_email</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>emergency_contact_name</t>
+  </si>
+  <si>
+    <t>emergency_contact_relationship</t>
+  </si>
+  <si>
+    <t>emergnecy_contact_number</t>
+  </si>
+  <si>
+    <t>date_joined</t>
+  </si>
+  <si>
+    <t>probation_end_date</t>
+  </si>
+  <si>
+    <t>confirmation_date</t>
+  </si>
+  <si>
+    <t>contract_end_date</t>
+  </si>
+  <si>
+    <t>reporting_manager_employee_number</t>
+  </si>
+  <si>
+    <t>reporting_manager_first_name</t>
+  </si>
+  <si>
+    <t>notice_period_days</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>FT01</t>
+  </si>
+  <si>
+    <t>Regular full-time employment</t>
+  </si>
+  <si>
+    <t>se01</t>
+  </si>
+  <si>
+    <t>Developes and maintains software application</t>
+  </si>
+  <si>
+    <t>kl000041</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Nabeel</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Nabeel Hassan</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>nabeel.hassan@kibalabs.in</t>
+  </si>
+  <si>
+    <t>Hassan Nabeel</t>
+  </si>
+  <si>
+    <t>himself</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>Part-time employment</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>pm01</t>
+  </si>
+  <si>
+    <t>Manages Product development lifecycle</t>
+  </si>
+  <si>
+    <t>kl000040</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Chaurasiya</t>
+  </si>
+  <si>
+    <t>Sandeep Chaurasiya</t>
+  </si>
+  <si>
+    <t>sandeep.chaurasiya@kibalabs.in</t>
+  </si>
+  <si>
+    <t>sandeepChaurasiya@gmail.com</t>
+  </si>
+  <si>
+    <t>Chaurasiya ji</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>CT01</t>
+  </si>
+  <si>
+    <t>Fixed-term contract employment</t>
+  </si>
+  <si>
+    <t>HR Manager</t>
+  </si>
+  <si>
+    <t>hr01</t>
+  </si>
+  <si>
+    <t>Oversees human resources opearations</t>
+  </si>
+  <si>
+    <t>kl000039</t>
+  </si>
+  <si>
+    <t>Neyaz</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Neyaz Ahmad</t>
+  </si>
+  <si>
+    <t>neyaz.ahmad@kibalabs.in</t>
+  </si>
+  <si>
+    <t>neyazahmad@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahmad ji</t>
+  </si>
+  <si>
+    <t>EMPLOYEES PERSONAL DETAILS</t>
+  </si>
+  <si>
+    <t>employee_first_name</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>marriage_date</t>
+  </si>
+  <si>
+    <t>blood_group</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>physically_challenged</t>
+  </si>
+  <si>
+    <t>disability_details</t>
+  </si>
+  <si>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>mother_name</t>
+  </si>
+  <si>
+    <t>spouse_name</t>
+  </si>
+  <si>
+    <t>spouse_gender</t>
+  </si>
+  <si>
+    <t>residence_number</t>
+  </si>
+  <si>
+    <t>social_media_handles</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>kiki</t>
+  </si>
+  <si>
+    <t>kaka</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>{"instagram": "neyaz"}</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>Indain</t>
+  </si>
+  <si>
+    <t>lukemia</t>
+  </si>
+  <si>
+    <t>mimi</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>{"instagram": "sandeep"}</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>{"instagram": "beingnabeel"}</t>
+  </si>
+  <si>
+    <t>EMPLOYEE BANKING AND FINANCIAL DETAILS</t>
+  </si>
+  <si>
+    <t>org_pf_number</t>
+  </si>
+  <si>
+    <t>salary_payment_mode</t>
+  </si>
+  <si>
+    <t>pf_details_available</t>
+  </si>
+  <si>
+    <t>pf_joining_date</t>
+  </si>
+  <si>
+    <t>employee_contribution_to_pf</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>esi_details_available</t>
+  </si>
+  <si>
+    <t>esi_eligible</t>
+  </si>
+  <si>
+    <t>employer_esi_number</t>
+  </si>
+  <si>
+    <t>lwf_eligible</t>
+  </si>
+  <si>
+    <t>aadhar_number</t>
+  </si>
+  <si>
+    <t>dob_in_aadhar</t>
+  </si>
+  <si>
+    <t>full_name_in_aadhar</t>
+  </si>
+  <si>
+    <t>gender_in_aadhar</t>
+  </si>
+  <si>
+    <t>pan_available</t>
+  </si>
+  <si>
+    <t>pan_number</t>
+  </si>
+  <si>
+    <t>full_name_in_pan</t>
+  </si>
+  <si>
+    <t>dob_in_pan</t>
+  </si>
+  <si>
+    <t>parent_name_in_pan</t>
+  </si>
+  <si>
+    <t>employee_bank</t>
+  </si>
+  <si>
+    <t>HDFCINDS</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>HDFC0000156</t>
+  </si>
+  <si>
+    <t>Bank_Transfer</t>
+  </si>
+  <si>
+    <t>MAMUM00641480000001258</t>
+  </si>
+  <si>
+    <t>12% of Basic Salary</t>
+  </si>
+  <si>
+    <t>2356 4665 2334</t>
+  </si>
+  <si>
+    <t>XYZWU1234E</t>
+  </si>
+  <si>
+    <t>MAMUM00641480000001270</t>
+  </si>
+  <si>
+    <t>5678 0987 4567</t>
+  </si>
+  <si>
+    <t>ABCS23414E</t>
+  </si>
+  <si>
+    <t>MAMUM00641480000001285</t>
+  </si>
+  <si>
+    <t>2789 9278 5243</t>
+  </si>
+  <si>
+    <t>LKYT12365Y</t>
+  </si>
+  <si>
+    <t>Iftekhar Ahmad</t>
+  </si>
+  <si>
+    <t>SALARY STRUCTURE DEFINATIONS</t>
+  </si>
+  <si>
+    <t>component_name</t>
+  </si>
+  <si>
+    <t>component_code</t>
+  </si>
+  <si>
+    <t>component_category</t>
+  </si>
+  <si>
+    <t>component_type</t>
+  </si>
+  <si>
+    <t>calculation_type</t>
+  </si>
+  <si>
+    <t>calculation_basis</t>
+  </si>
+  <si>
+    <t>calculation_formula</t>
+  </si>
+  <si>
+    <t>calculation_frequency</t>
+  </si>
+  <si>
+    <t>is_taxable</t>
+  </si>
+  <si>
+    <t>consider_for_ctc</t>
+  </si>
+  <si>
+    <t>consider_for_esi</t>
+  </si>
+  <si>
+    <t>consider_for_pf</t>
+  </si>
+  <si>
+    <t>consider_for_bonus</t>
+  </si>
+  <si>
+    <t>min_value</t>
+  </si>
+  <si>
+    <t>max_value</t>
+  </si>
+  <si>
+    <t>rounding_factor</t>
+  </si>
+  <si>
+    <t>print_name</t>
+  </si>
+  <si>
+    <t>Basic Salary</t>
+  </si>
+  <si>
+    <t>BASIC</t>
+  </si>
+  <si>
+    <t>earnings</t>
+  </si>
+  <si>
+    <t>fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERCENTAGE  </t>
+  </si>
+  <si>
+    <t>montly</t>
+  </si>
+  <si>
     <t>null</t>
   </si>
   <si>
-    <t>CC1004</t>
-  </si>
-  <si>
-    <t>Application Development</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Handles software, hardware, and security systems</t>
-  </si>
-  <si>
-    <t>IT002</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>CC1003</t>
-  </si>
-  <si>
-    <t>IT Infrastructure &amp; Support</t>
-  </si>
-  <si>
-    <t>EMPLOYEE ONBOARDING DATA</t>
-  </si>
-  <si>
-    <t>title_name</t>
-  </si>
-  <si>
-    <t>title_description</t>
-  </si>
-  <si>
-    <t>grade_level</t>
-  </si>
-  <si>
-    <t>employee_number</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>display_name</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>official_email</t>
-  </si>
-  <si>
-    <t>personal_email</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>emergency_contact_name</t>
-  </si>
-  <si>
-    <t>emergency_contact_relationship</t>
-  </si>
-  <si>
-    <t>emergnecy_contact_number</t>
-  </si>
-  <si>
-    <t>date_joined</t>
-  </si>
-  <si>
-    <t>probation_end_date</t>
-  </si>
-  <si>
-    <t>confirmation_date</t>
-  </si>
-  <si>
-    <t>contract_end_date</t>
-  </si>
-  <si>
-    <t>reporting_manager_employee_number</t>
-  </si>
-  <si>
-    <t>notice_period_days</t>
-  </si>
-  <si>
-    <t>Full-time</t>
-  </si>
-  <si>
-    <t>Regular full-time employment</t>
-  </si>
-  <si>
-    <t>Developes and maintains software application</t>
-  </si>
-  <si>
-    <t>kl000041</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Nabeel</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
-    <t>Nabeel Hassan</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>nabeel.hassan@kibalabs.in</t>
-  </si>
-  <si>
-    <t>sk.hassan2013@gmail.com</t>
-  </si>
-  <si>
-    <t>Hassan Nabeel</t>
-  </si>
-  <si>
-    <t>himself</t>
-  </si>
-  <si>
-    <t>Part-time</t>
-  </si>
-  <si>
-    <t>Part-time employment</t>
-  </si>
-  <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
-    <t>Manages Product development lifecycle</t>
-  </si>
-  <si>
-    <t>kl000040</t>
-  </si>
-  <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
-    <t>Chaurasiya</t>
-  </si>
-  <si>
-    <t>Sandeep Chaurasiya</t>
-  </si>
-  <si>
-    <t>sandeep.chaurasiya@kibalabs.in</t>
-  </si>
-  <si>
-    <t>sandeepChaurasiya@gmail.com</t>
-  </si>
-  <si>
-    <t>Chaurasiya ji</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>Contract</t>
-  </si>
-  <si>
-    <t>Fixed-term contract employment</t>
-  </si>
-  <si>
-    <t>HR Manager</t>
-  </si>
-  <si>
-    <t>Oversees human resources opearations</t>
-  </si>
-  <si>
-    <t>kl000039</t>
-  </si>
-  <si>
-    <t>Neyaz</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>Neyaz Ahmad</t>
-  </si>
-  <si>
-    <t>neyaz.ahmad@kibalabs.in</t>
-  </si>
-  <si>
-    <t>neyazahmad@gmail.com</t>
-  </si>
-  <si>
-    <t>Ahmad ji</t>
-  </si>
-  <si>
-    <t>EMPLOYEES PERSONAL DETAILS</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>marriage_date</t>
-  </si>
-  <si>
-    <t>blood_group</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>physically_challenged</t>
-  </si>
-  <si>
-    <t>disability_details</t>
-  </si>
-  <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>mother_name</t>
-  </si>
-  <si>
-    <t>spouse_name</t>
-  </si>
-  <si>
-    <t>spouse_gender</t>
-  </si>
-  <si>
-    <t>residence_number</t>
-  </si>
-  <si>
-    <t>social_media_handles</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>Indain</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>EMPLOYEE BANKING AND FINANCIAL DETAILS</t>
-  </si>
-  <si>
-    <t>salary_payment_mode</t>
-  </si>
-  <si>
-    <t>pf_details_available</t>
-  </si>
-  <si>
-    <t>pf_joining_date</t>
-  </si>
-  <si>
-    <t>employee_contribution_to_pf</t>
-  </si>
-  <si>
-    <t>uan</t>
-  </si>
-  <si>
-    <t>esi_details_available</t>
-  </si>
-  <si>
-    <t>esi_eligible</t>
-  </si>
-  <si>
-    <t>employer_esi_number</t>
-  </si>
-  <si>
-    <t>lwf_eligible</t>
-  </si>
-  <si>
-    <t>aadhar_number</t>
-  </si>
-  <si>
-    <t>dob_in_aadhar</t>
-  </si>
-  <si>
-    <t>full_name_in_pan</t>
-  </si>
-  <si>
-    <t>gender_in_aadhar</t>
-  </si>
-  <si>
-    <t>pan_available</t>
-  </si>
-  <si>
-    <t>pan_number</t>
-  </si>
-  <si>
-    <t>dob_in_pan</t>
-  </si>
-  <si>
-    <t>parent_name_in_pan</t>
-  </si>
-  <si>
-    <t>Private Limited</t>
-  </si>
-  <si>
-    <t>Saving Account</t>
-  </si>
-  <si>
-    <t>HDFC0000122</t>
-  </si>
-  <si>
-    <t>Bank Transfer</t>
-  </si>
-  <si>
-    <t>BR/PF/67890</t>
-  </si>
-  <si>
-    <t>12% of Basic Salary</t>
-  </si>
-  <si>
-    <t>2356 4665 2334</t>
-  </si>
-  <si>
-    <t>XYZWU1234E</t>
-  </si>
-  <si>
-    <t>5678 0987 4567</t>
-  </si>
-  <si>
-    <t>ABCS23414E</t>
-  </si>
-  <si>
-    <t>LKYT12365Y</t>
-  </si>
-  <si>
-    <t>SALARY STRUCTURE DEFINATIONS</t>
-  </si>
-  <si>
-    <t>component_name</t>
-  </si>
-  <si>
-    <t>component_code</t>
-  </si>
-  <si>
-    <t>component_category</t>
-  </si>
-  <si>
-    <t>component_type</t>
-  </si>
-  <si>
-    <t>calculation_type</t>
-  </si>
-  <si>
-    <t>calculation_basis</t>
-  </si>
-  <si>
-    <t>calculation_formula</t>
-  </si>
-  <si>
-    <t>calculation_frequency</t>
-  </si>
-  <si>
-    <t>is_taxable</t>
-  </si>
-  <si>
-    <t>consider_for_ctc</t>
-  </si>
-  <si>
-    <t>consider_for_esi</t>
-  </si>
-  <si>
-    <t>consider_for_pf</t>
-  </si>
-  <si>
-    <t>consider_for_bonus</t>
-  </si>
-  <si>
-    <t>min_value</t>
-  </si>
-  <si>
-    <t>max_value</t>
-  </si>
-  <si>
-    <t>rounding_factor</t>
-  </si>
-  <si>
-    <t>print_name</t>
-  </si>
-  <si>
-    <t>Basic_Salary</t>
-  </si>
-  <si>
-    <t>BASIC</t>
-  </si>
-  <si>
-    <t>Earnings</t>
-  </si>
-  <si>
-    <t>Fixed</t>
-  </si>
-  <si>
-    <t>Percentage of CTC</t>
-  </si>
-  <si>
     <t>Basic</t>
   </si>
   <si>
@@ -1986,12 +2958,15 @@
     <t>HRA</t>
   </si>
   <si>
-    <t>Percentage of Basic</t>
+    <t>Basicx0.4</t>
   </si>
   <si>
     <t>House rent allowance component</t>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>structure_name</t>
   </si>
   <si>
@@ -2016,6 +2991,9 @@
     <t>Standard Structure</t>
   </si>
   <si>
+    <t>std01</t>
+  </si>
+  <si>
     <t>Standard salary structure for employees</t>
   </si>
   <si>
@@ -2037,6 +3015,9 @@
     <t>EMPLOYEE SALARIES</t>
   </si>
   <si>
+    <t>emp_first_name</t>
+  </si>
+  <si>
     <t>annual_ctl</t>
   </si>
   <si>
@@ -2079,6 +3060,9 @@
     <t>Monthly cycle</t>
   </si>
   <si>
+    <t>cycle_start_day</t>
+  </si>
+  <si>
     <t>run_date</t>
   </si>
   <si>
@@ -2106,6 +3090,18 @@
     <t>locked</t>
   </si>
   <si>
+    <t>processed_by_emp_number</t>
+  </si>
+  <si>
+    <t>processed_by_emp_first_name</t>
+  </si>
+  <si>
+    <t>approved_by_emp_number</t>
+  </si>
+  <si>
+    <t>approved_by_emp_first_name</t>
+  </si>
+  <si>
     <t>remarks</t>
   </si>
   <si>
@@ -2115,6 +3111,9 @@
     <t>30-01-2024</t>
   </si>
   <si>
+    <t>31-01-2024</t>
+  </si>
+  <si>
     <t>completed</t>
   </si>
   <si>
@@ -2145,9 +3144,15 @@
     <t>created_by_emp_number</t>
   </si>
   <si>
+    <t>created_by_emp_first_name</t>
+  </si>
+  <si>
     <t>updated_by_emp_number</t>
   </si>
   <si>
+    <t>updated_by_emp_name</t>
+  </si>
+  <si>
     <t>Leave Policy</t>
   </si>
   <si>
@@ -2160,9 +3165,6 @@
     <t>Company leave policy module</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>POLICY MANAGEMENT</t>
   </si>
   <si>
@@ -2187,7 +3189,7 @@
     <t>validation_rules</t>
   </si>
   <si>
-    <t>Leave</t>
+    <t>updated_by_emp_first_name</t>
   </si>
   <si>
     <t>Max Casual Leaves</t>
@@ -2199,7 +3201,7 @@
     <t>{ value: 12}</t>
   </si>
   <si>
-    <t>number</t>
+    <t>NUMBER</t>
   </si>
   <si>
     <t>{ min: 0, max: 30}</t>
@@ -2214,6 +3216,12 @@
     <t>employement_type_name</t>
   </si>
   <si>
+    <t>employment_type_code</t>
+  </si>
+  <si>
+    <t>probation_code</t>
+  </si>
+  <si>
     <t>probation_period_months</t>
   </si>
   <si>
@@ -2238,6 +3246,9 @@
     <t>review_before_days</t>
   </si>
   <si>
+    <t>ny01</t>
+  </si>
+  <si>
     <t>version_number</t>
   </si>
   <si>
@@ -2250,9 +3261,6 @@
     <t>approved_at</t>
   </si>
   <si>
-    <t>approved_by_emp_number</t>
-  </si>
-  <si>
     <t>1.0.0</t>
   </si>
   <si>
@@ -2277,6 +3285,9 @@
     <t>comments</t>
   </si>
   <si>
+    <t>electronic</t>
+  </si>
+  <si>
     <t>192.168.1.1</t>
   </si>
   <si>
@@ -2478,15 +3489,18 @@
     <t>['web_app', 'mobile_app']</t>
   </si>
   <si>
-    <t>fixed</t>
-  </si>
-  <si>
     <t>1970-01-01T09:00:00</t>
   </si>
   <si>
     <t>1970-01-01T18:00:00</t>
   </si>
   <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>automatic</t>
+  </si>
+  <si>
     <t>shift_name</t>
   </si>
   <si>
@@ -2499,12 +3513,6 @@
     <t>break_duration</t>
   </si>
   <si>
-    <t>none</t>
-  </si>
-  <si>
-    <t>automatic</t>
-  </si>
-  <si>
     <t>Morning shift</t>
   </si>
   <si>
@@ -2523,196 +3531,16 @@
     <t>flexible</t>
   </si>
   <si>
+    <t>2025-02-27T09:00:00</t>
+  </si>
+  <si>
+    <t>2025-02-27T18:00:00</t>
+  </si>
+  <si>
     <t>Flexible timing with 2 hours window</t>
   </si>
   <si>
     <t>Flexi shift</t>
-  </si>
-  <si>
-    <t>Director</t>
-  </si>
-  <si>
-    <t>location_code</t>
-  </si>
-  <si>
-    <t>pat01</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>gstin</t>
-  </si>
-  <si>
-    <t>nabeelhassan17808@gmai.com</t>
-  </si>
-  <si>
-    <t>type_code</t>
-  </si>
-  <si>
-    <t>sr01</t>
-  </si>
-  <si>
-    <t>it01</t>
-  </si>
-  <si>
-    <t>parent_dept_type_code</t>
-  </si>
-  <si>
-    <t>FT01</t>
-  </si>
-  <si>
-    <t>PT01</t>
-  </si>
-  <si>
-    <t>CT01</t>
-  </si>
-  <si>
-    <t>title_code</t>
-  </si>
-  <si>
-    <t>se01</t>
-  </si>
-  <si>
-    <t>pm01</t>
-  </si>
-  <si>
-    <t>hr01</t>
-  </si>
-  <si>
-    <t>dept_type_code</t>
-  </si>
-  <si>
-    <t>pat02</t>
-  </si>
-  <si>
-    <t>work_location_code</t>
-  </si>
-  <si>
-    <t>work_location_city</t>
-  </si>
-  <si>
-    <t>reporting_manager_first_name</t>
-  </si>
-  <si>
-    <t>employee_first_name</t>
-  </si>
-  <si>
-    <t>kiki</t>
-  </si>
-  <si>
-    <t>mimi</t>
-  </si>
-  <si>
-    <t>titi</t>
-  </si>
-  <si>
-    <t>kaka</t>
-  </si>
-  <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>org_pf_number</t>
-  </si>
-  <si>
-    <t>BR/PTNA/9876543/0002</t>
-  </si>
-  <si>
-    <t>BR/PTNA/9876543/0003</t>
-  </si>
-  <si>
-    <t>full_name_in_aadhar</t>
-  </si>
-  <si>
-    <t>montly</t>
-  </si>
-  <si>
-    <t>Basicx0.4</t>
-  </si>
-  <si>
-    <t>std01</t>
-  </si>
-  <si>
-    <t>emp_first_name</t>
-  </si>
-  <si>
-    <t>cycle_start_day</t>
-  </si>
-  <si>
-    <t>31-01-2024</t>
-  </si>
-  <si>
-    <t>processed_by_emp_number</t>
-  </si>
-  <si>
-    <t>processed_by_emp_first_name</t>
-  </si>
-  <si>
-    <t>approved_by_emp_first_name</t>
-  </si>
-  <si>
-    <t>created_by_emp_first_name</t>
-  </si>
-  <si>
-    <t>updated_by_emp_name</t>
-  </si>
-  <si>
-    <t>updated_by_emp_first_name</t>
-  </si>
-  <si>
-    <t>employment_type_code</t>
-  </si>
-  <si>
-    <t>probation_code</t>
-  </si>
-  <si>
-    <t>ny01</t>
-  </si>
-  <si>
-    <t>direct</t>
-  </si>
-  <si>
-    <t>2025-02-27T09:00:00</t>
-  </si>
-  <si>
-    <t>2025-02-27T18:00:00</t>
-  </si>
-  <si>
-    <t>lukemia</t>
-  </si>
-  <si>
-    <t>{"instagram": "beingnabeel"}</t>
-  </si>
-  <si>
-    <t>{"instagram": "sandeep"}</t>
-  </si>
-  <si>
-    <t>{"instagram": "neyaz"}</t>
-  </si>
-  <si>
-    <t>BR/PF/67456</t>
-  </si>
-  <si>
-    <t>BR/PF/69869</t>
-  </si>
-  <si>
-    <t>2789 9278 5243</t>
-  </si>
-  <si>
-    <t>Iftekhar Ahmad</t>
   </si>
 </sst>
 </file>
@@ -2720,18 +3548,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2810,6 +3630,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2924,48 +3758,49 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3247,159 +4082,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y3" sqref="Y3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.6640625" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" customWidth="1"/>
-    <col min="8" max="8" width="14.5546875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" customWidth="1"/>
-    <col min="12" max="12" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.5546875" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.5546875" customWidth="1"/>
-    <col min="19" max="19" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.88671875" customWidth="1"/>
-    <col min="24" max="24" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" customWidth="1"/>
+    <col min="12" max="12" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" customWidth="1"/>
+    <col min="15" max="15" width="18.5703125" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.85546875" customWidth="1"/>
+    <col min="24" max="24" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="21" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.88671875" customWidth="1"/>
-    <col min="29" max="29" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.85546875" customWidth="1"/>
+    <col min="29" max="29" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="21.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:31" ht="14.45" customHeight="1">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:31" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:31" ht="15.6">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="P2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="R2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="T2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="U2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="W2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="Y2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="Z2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AA2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AC2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AD2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AE2" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" ht="30.75">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -3407,91 +4242,96 @@
         <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
-      </c>
-      <c r="D3" s="5" t="s">
         <v>34</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="E3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="18">
+        <v>36</v>
+      </c>
+      <c r="F3" s="9">
         <v>44835</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>38</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>39</v>
       </c>
       <c r="J3">
         <v>502157</v>
       </c>
       <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="9">
+        <v>40</v>
+      </c>
+      <c r="L3" s="8">
         <v>50100674856789</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="8" t="s">
         <v>41</v>
       </c>
+      <c r="N3" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
-        <v>43</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>47</v>
-      </c>
-      <c r="V3" t="s">
-        <v>48</v>
-      </c>
-      <c r="W3" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="18">
-        <v>43922</v>
-      </c>
-      <c r="Y3" t="s">
+      <c r="V3">
+        <v>5041100</v>
+      </c>
+      <c r="W3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="Z3" s="19">
-        <v>43923</v>
-      </c>
-      <c r="AA3" s="10" t="s">
+      <c r="X3" s="9">
+        <v>44836</v>
+      </c>
+      <c r="Y3">
+        <v>3.100123456E+16</v>
+      </c>
+      <c r="Z3" s="10">
+        <v>44837</v>
+      </c>
+      <c r="AA3" t="s">
         <v>51</v>
       </c>
       <c r="AB3" t="s">
         <v>52</v>
       </c>
-      <c r="AC3" s="18">
-        <v>44110</v>
-      </c>
-      <c r="AD3" s="10" t="s">
+      <c r="AC3" s="9">
+        <v>44838</v>
+      </c>
+      <c r="AD3" t="s">
         <v>53</v>
       </c>
-      <c r="AE3" s="18">
-        <v>44604</v>
+      <c r="AE3" s="9">
+        <v>44846</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="G8" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -3510,93 +4350,93 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EB149-39B2-4236-8002-EB131722F266}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="163" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="E1" zoomScale="147" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-    </row>
-    <row r="2" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
-      </c>
-      <c r="E3" s="18">
+        <v>294</v>
+      </c>
+      <c r="E3" s="9">
         <v>45292</v>
       </c>
       <c r="G3">
@@ -3612,20 +4452,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="D4" t="s">
-        <v>458</v>
-      </c>
-      <c r="E4" s="18">
+        <v>294</v>
+      </c>
+      <c r="E4" s="9">
         <v>45388</v>
       </c>
       <c r="G4">
@@ -3641,20 +4481,20 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="D5" t="s">
-        <v>458</v>
-      </c>
-      <c r="E5" s="18">
+        <v>294</v>
+      </c>
+      <c r="E5" s="9">
         <v>45690</v>
       </c>
       <c r="G5">
@@ -3680,71 +4520,75 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0AFF4AD-30CB-4F0C-9C3F-4D75C7C089C2}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-    </row>
-    <row r="2" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:9" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>314</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3774,122 +4618,122 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDBB16E3-293C-4826-B383-6C1FC96E0D21}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="27.109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="36.5546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:18" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>321</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>322</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>323</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="O2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
-      </c>
-      <c r="F3" s="18">
+        <v>333</v>
+      </c>
+      <c r="F3" s="9">
         <v>45292</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>461</v>
+      <c r="G3" s="9" t="s">
+        <v>334</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -3904,25 +4748,25 @@
         <v>4000000</v>
       </c>
       <c r="L3" t="s">
-        <v>282</v>
+        <v>335</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="P3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="Q3" t="s">
-        <v>132</v>
-      </c>
-      <c r="R3" s="7" t="s">
-        <v>283</v>
+        <v>153</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3934,136 +4778,136 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7946E-EEA5-43D3-BE03-CE5CA6F9110C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7946E-EEA5-43D3-BE03-CE5CA6F9110C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.88671875" customWidth="1"/>
-    <col min="15" max="15" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.85546875" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:15" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>343</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>344</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="9">
+        <v>45292</v>
+      </c>
+      <c r="L3" t="s">
+        <v>151</v>
+      </c>
+      <c r="M3" t="s">
+        <v>153</v>
+      </c>
+      <c r="N3" t="s">
+        <v>151</v>
+      </c>
+      <c r="O3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="O11" t="s">
         <v>285</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>293</v>
-      </c>
-      <c r="B3" t="s">
-        <v>420</v>
-      </c>
-      <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F3" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="18">
-        <v>45292</v>
-      </c>
-      <c r="L3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M3" t="s">
-        <v>132</v>
-      </c>
-      <c r="N3" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="O11" t="s">
-        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -4071,167 +4915,168 @@
     <mergeCell ref="A1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB38F180-2F2C-4017-A0FF-9CF8FF5EDE00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB38F180-2F2C-4017-A0FF-9CF8FF5EDE00}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T3" sqref="T3"/>
+    <sheetView topLeftCell="D1" zoomScale="120" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="28" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="28" customWidth="1"/>
-    <col min="18" max="18" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:18" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:18" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>357</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="M2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="F3" t="s">
-        <v>308</v>
+        <v>362</v>
       </c>
       <c r="G3" t="s">
-        <v>309</v>
+        <v>363</v>
       </c>
       <c r="H3" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="K3" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="L3" t="s">
-        <v>312</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>313</v>
+        <v>366</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>367</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="Q3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="R3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="26" spans="13:13" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4239,6 +5084,7 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4246,154 +5092,154 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD0342-AB7E-4371-A9B1-8F7F40D3C79F}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="Q1" zoomScale="116" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="23" customWidth="1"/>
-    <col min="7" max="9" width="25.109375" customWidth="1"/>
+    <col min="7" max="9" width="25.140625" customWidth="1"/>
     <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="28" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:22" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+      <c r="U1" s="15"/>
+      <c r="V1" s="15"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>317</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="E2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>377</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s">
-        <v>433</v>
+        <v>147</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>431</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="H3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>470</v>
+        <v>379</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -4423,16 +5269,16 @@
         <v>15</v>
       </c>
       <c r="S3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="T3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="U3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="V3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4447,130 +5293,130 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C55244-73ED-4C00-9AAA-1CE3088AB3F0}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="28" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="E2" s="2" t="s">
+    <row r="1" spans="1:15" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="G2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="I2" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>329</v>
+        <v>384</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="E3" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="18">
+        <v>386</v>
+      </c>
+      <c r="G3" s="9">
         <v>45292</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="L3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="N3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="O3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4585,91 +5431,91 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C445626-36A5-4BAC-BC5B-C092E1D3069C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C445626-36A5-4BAC-BC5B-C092E1D3069C}">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:9" ht="15.6">
+      <c r="A2" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>328</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>471</v>
+        <v>392</v>
       </c>
       <c r="G3" t="s">
-        <v>336</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>337</v>
+        <v>393</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>394</v>
       </c>
       <c r="I3" t="s">
-        <v>338</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -4677,159 +5523,160 @@
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771473C8-0ED1-48AE-9391-29EDA379D213}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771473C8-0ED1-48AE-9391-29EDA379D213}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="24" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="28" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:24" ht="14.45" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+    </row>
+    <row r="2" spans="1:24" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="F2" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>404</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="V2" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="W2" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="X2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24">
+      <c r="A3" t="s">
+        <v>411</v>
+      </c>
+      <c r="B3" t="s">
         <v>349</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="C3" t="s">
         <v>350</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>354</v>
-      </c>
-      <c r="B3" t="s">
-        <v>294</v>
-      </c>
-      <c r="C3" t="s">
-        <v>306</v>
-      </c>
       <c r="D3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>355</v>
+        <v>412</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -4865,21 +5712,21 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="V3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="W3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="X3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="D6" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4887,217 +5734,210 @@
     <mergeCell ref="A1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6ECD90-1322-416C-B291-E30B25C6AB05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6ECD90-1322-416C-B291-E30B25C6AB05}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:13" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:13" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2024</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="18">
+        <v>37</v>
+      </c>
+      <c r="D3" s="9">
         <v>45292</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="9">
         <v>45657</v>
       </c>
       <c r="F3" t="s">
-        <v>364</v>
+        <v>421</v>
       </c>
       <c r="G3" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="H3" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="I3" t="s">
-        <v>367</v>
-      </c>
-      <c r="J3" s="18">
+        <v>424</v>
+      </c>
+      <c r="J3" s="9">
         <v>45292</v>
       </c>
       <c r="K3" t="b">
         <v>0</v>
       </c>
-      <c r="L3" t="b">
-        <v>0</v>
-      </c>
       <c r="M3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>2024</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="18">
+        <v>37</v>
+      </c>
+      <c r="D4" s="9">
         <v>45292</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="9">
         <v>45657</v>
       </c>
       <c r="F4" t="s">
-        <v>368</v>
+        <v>425</v>
       </c>
       <c r="G4" t="s">
-        <v>365</v>
+        <v>422</v>
       </c>
       <c r="H4" t="s">
-        <v>366</v>
+        <v>423</v>
       </c>
       <c r="I4" t="s">
-        <v>369</v>
-      </c>
-      <c r="J4" s="18">
+        <v>426</v>
+      </c>
+      <c r="J4" s="9">
         <v>45519</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4" t="b">
-        <v>0</v>
-      </c>
       <c r="M4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>2024</v>
       </c>
       <c r="B5" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="18">
+        <v>37</v>
+      </c>
+      <c r="D5" s="9">
         <v>45292</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="9">
         <v>45657</v>
       </c>
       <c r="F5" t="s">
-        <v>370</v>
+        <v>427</v>
       </c>
       <c r="G5" t="s">
-        <v>371</v>
+        <v>428</v>
       </c>
       <c r="H5" t="s">
-        <v>372</v>
+        <v>429</v>
       </c>
       <c r="I5" t="s">
-        <v>373</v>
-      </c>
-      <c r="J5" s="18">
+        <v>430</v>
+      </c>
+      <c r="J5" s="9">
         <v>45426</v>
       </c>
       <c r="K5" t="b">
         <v>0</v>
       </c>
-      <c r="L5" t="b">
-        <v>1</v>
-      </c>
       <c r="M5" t="s">
-        <v>374</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5105,245 +5945,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF8E03C-F822-4114-BE09-40AAAFDC7892}">
   <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.109375" customWidth="1"/>
-    <col min="17" max="17" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="7.44140625" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.140625" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="7.42578125" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="17"/>
-    </row>
-    <row r="2" spans="1:22" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:22" ht="14.45" customHeight="1">
+      <c r="A1" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="18"/>
+    </row>
+    <row r="2" spans="1:22" ht="15.6">
+      <c r="A2" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="H2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>421</v>
-      </c>
-      <c r="K2" s="4" t="s">
+      <c r="I2" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="J2" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="K2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="L2" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q2" s="4" t="s">
+      <c r="N2" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>424</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>425</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>426</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="V2" s="4" t="s">
+      <c r="O2" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P2" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="R2" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C3">
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J3" t="s">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="K3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="M3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N3" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="O3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="Q3" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="R3">
         <v>800001</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>137</v>
+      <c r="S3" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="V3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C4">
         <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E4" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="J4" t="s">
-        <v>441</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="M4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q4" t="s">
         <v>81</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>74</v>
       </c>
       <c r="R4">
         <v>800002</v>
       </c>
-      <c r="S4" s="5" t="s">
-        <v>428</v>
+      <c r="S4" s="4" t="s">
+        <v>92</v>
       </c>
       <c r="V4" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -5360,192 +6200,192 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586F6509-5C69-49DF-BED7-4ABA7FC1FBF4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586F6509-5C69-49DF-BED7-4ABA7FC1FBF4}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AD23" sqref="AD23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="24.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="24.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="28" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="28" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:34" ht="14.45" customHeight="1">
+      <c r="A1" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:34" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>377</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>380</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>389</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>392</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>393</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>394</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>395</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>398</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>401</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="E2" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="Z2" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA2" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="AC2" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="AD2" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -5554,13 +6394,13 @@
         <v>500</v>
       </c>
       <c r="H3" t="s">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="J3" t="s">
-        <v>405</v>
+        <v>461</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -5584,10 +6424,10 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="W3" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -5608,16 +6448,16 @@
         <v>2</v>
       </c>
       <c r="AE3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="AF3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="AG3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5625,127 +6465,128 @@
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F032E4-F1D2-4742-B210-8E5737CB9A4C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F032E4-F1D2-4742-B210-8E5737CB9A4C}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="28" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="25.21875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-    </row>
-    <row r="2" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:19" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+    </row>
+    <row r="2" spans="1:19" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>407</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>408</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>382</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>409</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="N2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="I2" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="B3" t="s">
-        <v>403</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -5760,39 +6601,39 @@
         <v>8.5</v>
       </c>
       <c r="L3" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="M3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="N3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="O3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="C4" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F4" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -5810,19 +6651,19 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>418</v>
+        <v>476</v>
       </c>
       <c r="M4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="N4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="O4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="P4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5830,6 +6671,7 @@
     <mergeCell ref="A1:S1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5838,153 +6680,153 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>379</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="G2" s="2" t="s">
+    <row r="1" spans="1:10" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="D3" t="s">
-        <v>403</v>
-      </c>
-      <c r="E3" s="18">
+        <v>275</v>
+      </c>
+      <c r="E3" s="9">
         <v>45747</v>
       </c>
       <c r="G3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>419</v>
+        <v>477</v>
       </c>
       <c r="D4" t="s">
-        <v>417</v>
-      </c>
-      <c r="E4" s="18">
+        <v>473</v>
+      </c>
+      <c r="E4" s="9">
         <v>45717</v>
       </c>
       <c r="G4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
       <c r="D5" t="s">
-        <v>403</v>
-      </c>
-      <c r="E5" s="18">
+        <v>275</v>
+      </c>
+      <c r="E5" s="9">
         <v>45721</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="H5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="I5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="J5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6000,135 +6842,135 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="21.6640625" customWidth="1"/>
-    <col min="10" max="10" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="21.7109375" customWidth="1"/>
+    <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="17"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="3" t="s">
+    <row r="1" spans="1:11" ht="21" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="18"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="F2" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.9">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>430</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>36</v>
+        <v>104</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>99</v>
+        <v>107</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="J3" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="K3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.9">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="B4" t="s">
-        <v>431</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>108</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="J4" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="K4" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -6141,464 +6983,464 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD60CA-9150-40C0-B868-C9DA9FAE1363}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD60CA-9150-40C0-B868-C9DA9FAE1363}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="29.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" customWidth="1"/>
-    <col min="8" max="8" width="36.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.33203125" customWidth="1"/>
-    <col min="12" max="12" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5546875" customWidth="1"/>
-    <col min="15" max="15" width="4.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.5703125" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="37.6640625" customWidth="1"/>
-    <col min="34" max="34" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="37.7109375" customWidth="1"/>
+    <col min="34" max="34" width="19.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:34" ht="21" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="18"/>
+    </row>
+    <row r="2" spans="1:34" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="S2" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="T2" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB2" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AH2" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" ht="28.9">
+      <c r="A3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="17"/>
-    </row>
-    <row r="2" spans="1:34" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="AH2" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3" t="s">
-        <v>433</v>
-      </c>
-      <c r="C3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D3" t="s">
-        <v>420</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>90</v>
-      </c>
       <c r="G3" t="s">
-        <v>437</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>129</v>
+        <v>149</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>150</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="K3" t="s">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="L3" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M3" t="s">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="N3" t="s">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="P3" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="R3" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
       <c r="S3" t="s">
-        <v>134</v>
-      </c>
-      <c r="T3" s="18">
+        <v>155</v>
+      </c>
+      <c r="T3" s="9">
         <v>36951</v>
       </c>
       <c r="U3" t="s">
-        <v>135</v>
-      </c>
-      <c r="V3" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>137</v>
+        <v>156</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="W3" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="X3">
         <v>9852369870</v>
       </c>
       <c r="Y3" t="s">
-        <v>138</v>
+        <v>158</v>
       </c>
       <c r="Z3" t="s">
-        <v>139</v>
+        <v>159</v>
       </c>
       <c r="AA3">
         <v>9608020606</v>
       </c>
-      <c r="AB3" s="18">
+      <c r="AB3" s="9">
         <v>45579</v>
       </c>
-      <c r="AC3" s="18">
+      <c r="AC3" s="9">
         <v>45730</v>
       </c>
-      <c r="AD3" s="18">
+      <c r="AD3" s="9">
         <v>45731</v>
       </c>
       <c r="AH3">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:34" ht="14.45">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>161</v>
       </c>
       <c r="C4" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
-        <v>438</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="K4" t="s">
-        <v>430</v>
+        <v>104</v>
       </c>
       <c r="L4" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="M4" t="s">
-        <v>422</v>
+        <v>82</v>
       </c>
       <c r="N4" t="s">
-        <v>374</v>
+        <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="P4" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="R4" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="S4" t="s">
-        <v>147</v>
-      </c>
-      <c r="T4" s="18">
+        <v>169</v>
+      </c>
+      <c r="T4" s="9">
         <v>35553</v>
       </c>
       <c r="U4" t="s">
-        <v>135</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="W4" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
+      </c>
+      <c r="V4" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="W4" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="X4">
         <v>9899559598</v>
       </c>
       <c r="Y4" t="s">
-        <v>150</v>
+        <v>172</v>
       </c>
       <c r="Z4" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AA4">
         <v>9899559598</v>
       </c>
-      <c r="AB4" s="18">
+      <c r="AB4" s="9">
         <v>45301</v>
       </c>
-      <c r="AC4" s="18">
+      <c r="AC4" s="9">
         <v>45660</v>
       </c>
-      <c r="AD4" s="18">
+      <c r="AD4" s="9">
         <v>45691</v>
       </c>
       <c r="AF4" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="AG4" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="AH4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:34" ht="14.45">
       <c r="A5" t="s">
-        <v>152</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s">
-        <v>435</v>
+        <v>175</v>
       </c>
       <c r="C5" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="G5" t="s">
-        <v>439</v>
+        <v>178</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="I5">
         <v>7</v>
       </c>
       <c r="J5" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>152</v>
+      </c>
+      <c r="P5" t="s">
+        <v>181</v>
+      </c>
+      <c r="R5" t="s">
+        <v>182</v>
+      </c>
+      <c r="S5" t="s">
+        <v>183</v>
+      </c>
+      <c r="T5" s="9">
+        <v>33299</v>
+      </c>
+      <c r="U5" t="s">
         <v>156</v>
       </c>
-      <c r="K5" t="s">
-        <v>431</v>
-      </c>
-      <c r="L5" t="s">
-        <v>99</v>
-      </c>
-      <c r="M5" t="s">
-        <v>441</v>
-      </c>
-      <c r="N5" t="s">
-        <v>374</v>
-      </c>
-      <c r="O5" t="s">
-        <v>131</v>
-      </c>
-      <c r="P5" t="s">
-        <v>157</v>
-      </c>
-      <c r="R5" t="s">
-        <v>158</v>
-      </c>
-      <c r="S5" t="s">
-        <v>159</v>
-      </c>
-      <c r="T5" s="18">
-        <v>33299</v>
-      </c>
-      <c r="U5" t="s">
-        <v>135</v>
-      </c>
-      <c r="V5" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="W5" s="5" t="s">
-        <v>161</v>
+      <c r="V5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="W5" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="X5">
         <v>9608020606</v>
       </c>
       <c r="Y5" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="Z5" t="s">
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="AA5">
         <v>9852369870</v>
       </c>
-      <c r="AB5" s="18">
+      <c r="AB5" s="9">
         <v>44571</v>
       </c>
-      <c r="AC5" s="18">
+      <c r="AC5" s="9">
         <v>44930</v>
       </c>
-      <c r="AD5" s="18">
+      <c r="AD5" s="9">
         <v>44961</v>
       </c>
       <c r="AF5" t="s">
-        <v>130</v>
+        <v>151</v>
       </c>
       <c r="AG5" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="AH5">
         <v>60</v>
@@ -6617,6 +7459,7 @@
     <hyperlink ref="W5" r:id="rId6" xr:uid="{06496FAB-BB39-4AA7-A9C3-929BC2E093FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6625,204 +7468,204 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="24.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="24.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="14.45" customHeight="1">
+      <c r="A1" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="18"/>
+    </row>
+    <row r="2" spans="1:14" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="18">
+        <v>201</v>
+      </c>
+      <c r="D3" s="9">
         <v>45649</v>
       </c>
       <c r="E3" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>177</v>
+        <v>203</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>446</v>
+        <v>204</v>
       </c>
       <c r="J3" t="s">
-        <v>449</v>
+        <v>205</v>
       </c>
       <c r="L3" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="M3">
         <v>896476</v>
       </c>
       <c r="N3" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="18">
+        <v>167</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="D4" s="9">
         <v>44177</v>
       </c>
       <c r="E4" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>474</v>
+        <v>210</v>
       </c>
       <c r="I4" t="s">
-        <v>447</v>
+        <v>211</v>
       </c>
       <c r="J4" t="s">
-        <v>450</v>
+        <v>212</v>
       </c>
       <c r="L4" t="s">
-        <v>178</v>
+        <v>206</v>
       </c>
       <c r="M4">
         <v>3245</v>
       </c>
       <c r="N4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>132</v>
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D5" s="18">
+        <v>201</v>
+      </c>
+      <c r="D5" s="9">
         <v>45177</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>448</v>
+        <v>214</v>
       </c>
       <c r="J5" t="s">
-        <v>451</v>
+        <v>215</v>
       </c>
       <c r="L5" t="s">
-        <v>181</v>
+        <v>216</v>
       </c>
       <c r="M5">
         <v>423</v>
       </c>
       <c r="N5" t="s">
-        <v>475</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -6834,607 +7677,608 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B31E7-254D-48AD-B04E-DE0E04DB3E4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B31E7-254D-48AD-B04E-DE0E04DB3E4D}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="9.88671875" customWidth="1"/>
-    <col min="20" max="20" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.7109375" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
-    </row>
-    <row r="2" spans="1:32" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="1" spans="1:32" ht="20.45">
+      <c r="A1" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="20"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="21"/>
+    </row>
+    <row r="2" spans="1:32" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="D2" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="P2" s="2" t="s">
+      <c r="N2" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="V2" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="X2" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Z2" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA2" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="AB2" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD2" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE2" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="AF2" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="Q2" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" ht="28.9">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D3" t="s">
         <v>49</v>
       </c>
+      <c r="D3" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3">
-        <v>502157</v>
+        <v>325540</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="I3">
         <v>368821018</v>
       </c>
       <c r="J3" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="K3" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="L3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="N3" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="O3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P3" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q3" s="18">
+        <v>243</v>
+      </c>
+      <c r="Q3" s="9">
         <v>43997</v>
       </c>
       <c r="R3" t="s">
+        <v>244</v>
+      </c>
+      <c r="T3" t="s">
+        <v>83</v>
+      </c>
+      <c r="U3" t="s">
+        <v>83</v>
+      </c>
+      <c r="V3">
+        <v>3.100123456E+16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>83</v>
+      </c>
+      <c r="X3" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y3" s="9">
+        <v>36221</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA3" t="s">
         <v>206</v>
       </c>
-      <c r="T3" t="s">
-        <v>75</v>
-      </c>
-      <c r="U3" t="s">
-        <v>75</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="AB3" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>246</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>183</v>
+      </c>
+      <c r="AE3" s="9">
+        <v>36221</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" ht="28.9">
+      <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="W3" t="s">
-        <v>75</v>
-      </c>
-      <c r="X3" t="s">
-        <v>207</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>36221</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>159</v>
-      </c>
-      <c r="AE3" s="18">
-        <v>36221</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>144</v>
-      </c>
-      <c r="B4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" t="s">
-        <v>453</v>
-      </c>
       <c r="E4" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G4">
-        <v>502157</v>
+        <v>325540</v>
       </c>
       <c r="H4" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="I4">
         <v>758833459</v>
       </c>
       <c r="J4" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="K4" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="L4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="N4" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P4" t="s">
-        <v>478</v>
-      </c>
-      <c r="Q4" s="18">
+        <v>247</v>
+      </c>
+      <c r="Q4" s="9">
         <v>44389</v>
       </c>
       <c r="R4" t="s">
+        <v>244</v>
+      </c>
+      <c r="T4" t="s">
+        <v>83</v>
+      </c>
+      <c r="U4" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4">
+        <v>3.100123456E+16</v>
+      </c>
+      <c r="X4" t="s">
+        <v>248</v>
+      </c>
+      <c r="Y4" s="9">
+        <v>37440</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA4" t="s">
         <v>206</v>
       </c>
-      <c r="T4" t="s">
-        <v>75</v>
-      </c>
-      <c r="U4" t="s">
-        <v>75</v>
-      </c>
-      <c r="V4" t="s">
+      <c r="AB4" t="s">
+        <v>83</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>249</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>169</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>36195</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" ht="28.9">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="X4" t="s">
-        <v>209</v>
-      </c>
-      <c r="Y4" s="18">
-        <v>37440</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>75</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>210</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE4" s="18">
-        <v>36195</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>130</v>
-      </c>
-      <c r="B5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" t="s">
-        <v>454</v>
-      </c>
       <c r="E5" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G5">
-        <v>502157</v>
+        <v>325540</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>239</v>
       </c>
       <c r="I5">
         <v>223478905</v>
       </c>
       <c r="J5" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="K5" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="L5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="N5" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P5" t="s">
-        <v>479</v>
-      </c>
-      <c r="Q5" s="18">
+        <v>250</v>
+      </c>
+      <c r="Q5" s="9">
         <v>45566</v>
       </c>
-      <c r="R5" s="8" t="s">
+      <c r="R5" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="T5" t="s">
+        <v>83</v>
+      </c>
+      <c r="U5" t="s">
+        <v>83</v>
+      </c>
+      <c r="V5">
+        <v>3.100123456E+16</v>
+      </c>
+      <c r="X5" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y5" s="9">
+        <v>33451</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AA5" t="s">
         <v>206</v>
       </c>
-      <c r="T5" t="s">
-        <v>75</v>
-      </c>
-      <c r="U5" t="s">
-        <v>75</v>
-      </c>
-      <c r="V5" t="s">
-        <v>50</v>
-      </c>
-      <c r="X5" t="s">
-        <v>480</v>
-      </c>
-      <c r="Y5" s="18">
-        <v>33451</v>
-      </c>
-      <c r="Z5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>178</v>
-      </c>
       <c r="AB5" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AC5" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD5" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE5" s="18">
+        <v>252</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="AE5" s="9">
         <v>37289</v>
       </c>
       <c r="AF5" t="s">
-        <v>481</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:T1"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DC832-5353-409E-939C-876616421212}">
-  <dimension ref="A1:T4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DC832-5353-409E-939C-876616421212}">
+  <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView topLeftCell="B1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-    </row>
-    <row r="2" spans="1:20" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:20" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+      <c r="O1" s="15"/>
+      <c r="P1" s="15"/>
+      <c r="Q1" s="15"/>
+      <c r="R1" s="15"/>
+      <c r="S1" s="15"/>
+      <c r="T1" s="15"/>
+    </row>
+    <row r="2" spans="1:20" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="R2" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="O2" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="R2" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="F3" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="G3" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="J3" t="s">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -7452,48 +8296,48 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="Q3" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>235</v>
+        <v>279</v>
       </c>
       <c r="T3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>237</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="F4" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="G4" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="I4" t="s">
-        <v>457</v>
+        <v>283</v>
       </c>
       <c r="J4" t="s">
-        <v>456</v>
+        <v>277</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -7511,19 +8355,24 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="Q4" t="s">
-        <v>94</v>
+        <v>278</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>238</v>
+        <v>282</v>
       </c>
       <c r="T4" t="s">
-        <v>240</v>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="E8" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -7531,6 +8380,7 @@
     <mergeCell ref="A1:T1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7538,85 +8388,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF7FE45-F9B3-4503-9D18-A5D38DE424DA}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="B1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:10" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D2" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>420</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>458</v>
+        <v>294</v>
       </c>
       <c r="E3" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="F3">
         <v>300000</v>
@@ -7624,11 +8474,11 @@
       <c r="G3">
         <v>1500000</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="9">
         <v>45292</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>94</v>
+      <c r="I3" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -7646,81 +8496,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E2E4EC-E767-4843-A6BD-026E33879243}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView topLeftCell="D1" zoomScale="142" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="2" width="22.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.6640625" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
-        <v>250</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>253</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="20.45">
+      <c r="A1" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.6">
+      <c r="A2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
-        <v>458</v>
+        <v>294</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="D3" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/kiba_labs_data_sheet_new.xlsx
+++ b/kiba_labs_data_sheet_new.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nabeel\AIDIPH-LIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4142181-1760-4285-8CB0-1CB7232F2609}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC14A2AD-7C0D-4ED3-A3F0-261709245A57}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organisation_details" sheetId="1" r:id="rId1"/>
@@ -2107,7 +2107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="473">
   <si>
     <t>ORGANISATIONS ESTABLISHMENT AND FINANCIAL DETAILS</t>
   </si>
@@ -2229,7 +2229,7 @@
     <t>HDFC Bank Limited</t>
   </si>
   <si>
-    <t>HDFCINB</t>
+    <t>HDFCINBB</t>
   </si>
   <si>
     <t>savings</t>
@@ -2256,577 +2256,580 @@
     <t>Patna, Bihar, India</t>
   </si>
   <si>
+    <t>IT2024BR</t>
+  </si>
+  <si>
+    <t>BRPTN50411001117654321</t>
+  </si>
+  <si>
+    <t>BRPTN123456789</t>
+  </si>
+  <si>
+    <t>BRPTN123456790</t>
+  </si>
+  <si>
+    <t>BRLWF456789</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>ORGANISATION LOCATIONS (MENTION ALL THE BRANCHES)</t>
+  </si>
+  <si>
+    <t>country_code</t>
+  </si>
+  <si>
+    <t>country_name</t>
+  </si>
+  <si>
+    <t>dial_code</t>
+  </si>
+  <si>
+    <t>currency_code</t>
+  </si>
+  <si>
+    <t>state_code</t>
+  </si>
+  <si>
+    <t>state_name</t>
+  </si>
+  <si>
+    <t>location_name</t>
+  </si>
+  <si>
+    <t>location_code</t>
+  </si>
+  <si>
+    <t>is_head_office</t>
+  </si>
+  <si>
+    <t>is_registered_office</t>
+  </si>
+  <si>
+    <t>is_branch</t>
+  </si>
+  <si>
+    <t>address_line_1</t>
+  </si>
+  <si>
+    <t>address_line_2</t>
+  </si>
+  <si>
+    <t>locality</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>pincode</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>gstin</t>
+  </si>
+  <si>
+    <t>timezone</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>bhr</t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Patna</t>
+  </si>
+  <si>
+    <t>pat01</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>29, Bailey Road</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fashion factory, 3rd floor</t>
+  </si>
+  <si>
+    <t>sk.hassan2013@gmail.com</t>
+  </si>
+  <si>
+    <t>Asia/Kolkata</t>
+  </si>
+  <si>
+    <t>pat02</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Boaring road</t>
+  </si>
+  <si>
+    <t>Near Sai Mandir Spti building</t>
+  </si>
+  <si>
+    <t>nabeelhassan17808@gmail.com</t>
+  </si>
+  <si>
+    <t>ORGANISATIONS DEPARTMENT INFORMATION</t>
+  </si>
+  <si>
+    <t>type_name</t>
+  </si>
+  <si>
+    <t>type_code</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>dept_code</t>
+  </si>
+  <si>
+    <t>dept_name</t>
+  </si>
+  <si>
+    <t>parent_dept_type_code</t>
+  </si>
+  <si>
+    <t>parent_dept_code</t>
+  </si>
+  <si>
+    <t>cost_center_code</t>
+  </si>
+  <si>
+    <t>dept_description</t>
+  </si>
+  <si>
+    <t>Software Engineer</t>
+  </si>
+  <si>
+    <t>sr01</t>
+  </si>
+  <si>
+    <t>Develops and maintains company software products</t>
+  </si>
+  <si>
+    <t>IT001</t>
+  </si>
+  <si>
+    <t>Software Development</t>
+  </si>
+  <si>
+    <t>it01</t>
+  </si>
+  <si>
+    <t>IT002</t>
+  </si>
+  <si>
+    <t>CC104</t>
+  </si>
+  <si>
+    <t>Application Development</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>Handles software, hardware, and security systems</t>
+  </si>
+  <si>
+    <t>Information Technology</t>
+  </si>
+  <si>
+    <t>CC103</t>
+  </si>
+  <si>
+    <t>IT Infrastructure &amp; Support</t>
+  </si>
+  <si>
+    <t>EMPLOYEE ONBOARDING DATA</t>
+  </si>
+  <si>
+    <t>title_name</t>
+  </si>
+  <si>
+    <t>title_code</t>
+  </si>
+  <si>
+    <t>title_description</t>
+  </si>
+  <si>
+    <t>grade_level</t>
+  </si>
+  <si>
+    <t>employee_number</t>
+  </si>
+  <si>
+    <t>dept_type_code</t>
+  </si>
+  <si>
+    <t>work_location_code</t>
+  </si>
+  <si>
+    <t>work_location_city</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>middle_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>display_name</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>official_email</t>
+  </si>
+  <si>
+    <t>personal_email</t>
+  </si>
+  <si>
+    <t>mobile_number</t>
+  </si>
+  <si>
+    <t>emergency_contact_name</t>
+  </si>
+  <si>
+    <t>emergency_contact_relationship</t>
+  </si>
+  <si>
+    <t>emergnecy_contact_number</t>
+  </si>
+  <si>
+    <t>date_joined</t>
+  </si>
+  <si>
+    <t>probation_end_date</t>
+  </si>
+  <si>
+    <t>confirmation_date</t>
+  </si>
+  <si>
+    <t>contract_end_date</t>
+  </si>
+  <si>
+    <t>reporting_manager_employee_number</t>
+  </si>
+  <si>
+    <t>reporting_manager_first_name</t>
+  </si>
+  <si>
+    <t>notice_period_days</t>
+  </si>
+  <si>
+    <t>permanent</t>
+  </si>
+  <si>
+    <t>FT01</t>
+  </si>
+  <si>
+    <t>Regular full-time employment</t>
+  </si>
+  <si>
+    <t>se01</t>
+  </si>
+  <si>
+    <t>Developes and maintains software application</t>
+  </si>
+  <si>
+    <t>kl000041</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>Nabeel</t>
+  </si>
+  <si>
+    <t>Hassan</t>
+  </si>
+  <si>
+    <t>Nabeel Hassan</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>nabeel.hassan@kibalabs.in</t>
+  </si>
+  <si>
+    <t>Hassan Nabeel</t>
+  </si>
+  <si>
+    <t>himself</t>
+  </si>
+  <si>
+    <t>consultant</t>
+  </si>
+  <si>
+    <t>PT01</t>
+  </si>
+  <si>
+    <t>Part-time employment</t>
+  </si>
+  <si>
+    <t>Product Manager</t>
+  </si>
+  <si>
+    <t>pm01</t>
+  </si>
+  <si>
+    <t>Manages Product development lifecycle</t>
+  </si>
+  <si>
+    <t>kl000040</t>
+  </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>Chaurasiya</t>
+  </si>
+  <si>
+    <t>Sandeep Chaurasiya</t>
+  </si>
+  <si>
+    <t>sandeep.chaurasiya@kibalabs.in</t>
+  </si>
+  <si>
+    <t>sandeepChaurasiya@gmail.com</t>
+  </si>
+  <si>
+    <t>Chaurasiya ji</t>
+  </si>
+  <si>
+    <t>father</t>
+  </si>
+  <si>
+    <t>contract</t>
+  </si>
+  <si>
+    <t>CT01</t>
+  </si>
+  <si>
+    <t>Fixed-term contract employment</t>
+  </si>
+  <si>
+    <t>HR Manager</t>
+  </si>
+  <si>
+    <t>hr01</t>
+  </si>
+  <si>
+    <t>Oversees human resources opearations</t>
+  </si>
+  <si>
+    <t>kl000039</t>
+  </si>
+  <si>
+    <t>Neyaz</t>
+  </si>
+  <si>
+    <t>Ahmad</t>
+  </si>
+  <si>
+    <t>Neyaz Ahmad</t>
+  </si>
+  <si>
+    <t>neyaz.ahmad@kibalabs.in</t>
+  </si>
+  <si>
+    <t>neyazahmad@gmail.com</t>
+  </si>
+  <si>
+    <t>Ahmad ji</t>
+  </si>
+  <si>
+    <t>EMPLOYEES PERSONAL DETAILS</t>
+  </si>
+  <si>
+    <t>employee_first_name</t>
+  </si>
+  <si>
+    <t>marital_status</t>
+  </si>
+  <si>
+    <t>marriage_date</t>
+  </si>
+  <si>
+    <t>blood_group</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>physically_challenged</t>
+  </si>
+  <si>
+    <t>disability_details</t>
+  </si>
+  <si>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>mother_name</t>
+  </si>
+  <si>
+    <t>spouse_name</t>
+  </si>
+  <si>
+    <t>spouse_gender</t>
+  </si>
+  <si>
+    <t>residence_number</t>
+  </si>
+  <si>
+    <t>social_media_handles</t>
+  </si>
+  <si>
+    <t>Married</t>
+  </si>
+  <si>
+    <t>B+</t>
+  </si>
+  <si>
+    <t>Indian</t>
+  </si>
+  <si>
+    <t>kiki</t>
+  </si>
+  <si>
+    <t>kaka</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>{"instagram": "neyaz"}</t>
+  </si>
+  <si>
+    <t>AB-</t>
+  </si>
+  <si>
+    <t>Indain</t>
+  </si>
+  <si>
+    <t>lukemia</t>
+  </si>
+  <si>
+    <t>mimi</t>
+  </si>
+  <si>
+    <t>mama</t>
+  </si>
+  <si>
+    <t>{"instagram": "sandeep"}</t>
+  </si>
+  <si>
+    <t>titi</t>
+  </si>
+  <si>
+    <t>tata</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>{"instagram": "beingnabeel"}</t>
+  </si>
+  <si>
+    <t>EMPLOYEE BANKING AND FINANCIAL DETAILS</t>
+  </si>
+  <si>
+    <t>org_pf_number</t>
+  </si>
+  <si>
+    <t>salary_payment_mode</t>
+  </si>
+  <si>
+    <t>pf_details_available</t>
+  </si>
+  <si>
+    <t>pf_joining_date</t>
+  </si>
+  <si>
+    <t>employee_contribution_to_pf</t>
+  </si>
+  <si>
+    <t>uan</t>
+  </si>
+  <si>
+    <t>esi_details_available</t>
+  </si>
+  <si>
+    <t>esi_eligible</t>
+  </si>
+  <si>
+    <t>employer_esi_number</t>
+  </si>
+  <si>
+    <t>lwf_eligible</t>
+  </si>
+  <si>
+    <t>aadhar_number</t>
+  </si>
+  <si>
+    <t>dob_in_aadhar</t>
+  </si>
+  <si>
+    <t>full_name_in_aadhar</t>
+  </si>
+  <si>
+    <t>gender_in_aadhar</t>
+  </si>
+  <si>
+    <t>pan_available</t>
+  </si>
+  <si>
+    <t>pan_number</t>
+  </si>
+  <si>
+    <t>full_name_in_pan</t>
+  </si>
+  <si>
+    <t>dob_in_pan</t>
+  </si>
+  <si>
+    <t>parent_name_in_pan</t>
+  </si>
+  <si>
     <t xml:space="preserve"> IT2024BR</t>
   </si>
   <si>
-    <t>BRPTN50411001117654321</t>
-  </si>
-  <si>
-    <t>BRPTN123456789</t>
-  </si>
-  <si>
-    <t>BRPTN123456790</t>
-  </si>
-  <si>
-    <t>BRLWF456789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-  </si>
-  <si>
-    <t>ORGANISATION LOCATIONS (MENTION ALL THE BRANCHES)</t>
-  </si>
-  <si>
-    <t>country_code</t>
-  </si>
-  <si>
-    <t>country_name</t>
-  </si>
-  <si>
-    <t>dial_code</t>
-  </si>
-  <si>
-    <t>currency_code</t>
-  </si>
-  <si>
-    <t>state_code</t>
-  </si>
-  <si>
-    <t>state_name</t>
-  </si>
-  <si>
-    <t>location_name</t>
-  </si>
-  <si>
-    <t>location_code</t>
-  </si>
-  <si>
-    <t>is_head_office</t>
-  </si>
-  <si>
-    <t>is_registered_office</t>
-  </si>
-  <si>
-    <t>is_branch</t>
-  </si>
-  <si>
-    <t>address_line_1</t>
-  </si>
-  <si>
-    <t>address_line_2</t>
-  </si>
-  <si>
-    <t>locality</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>pincode</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>gstin</t>
-  </si>
-  <si>
-    <t>timezone</t>
-  </si>
-  <si>
-    <t>ind</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>INR</t>
-  </si>
-  <si>
-    <t>bhr</t>
-  </si>
-  <si>
-    <t>Bihar</t>
-  </si>
-  <si>
-    <t>Patna</t>
-  </si>
-  <si>
-    <t>pat01</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>29, Bailey Road</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> fashion factory, 3rd floor</t>
-  </si>
-  <si>
-    <t>sk.hassan2013@gmail.com</t>
-  </si>
-  <si>
-    <t>Asia/Kolkata</t>
-  </si>
-  <si>
-    <t>pat02</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Boaring road</t>
-  </si>
-  <si>
-    <t>Near Sai Mandir Spti building</t>
-  </si>
-  <si>
-    <t>nabeelhassan17808@gmai.com</t>
-  </si>
-  <si>
-    <t>ORGANISATIONS DEPARTMENT INFORMATION</t>
-  </si>
-  <si>
-    <t>type_name</t>
-  </si>
-  <si>
-    <t>type_code</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>dept_code</t>
-  </si>
-  <si>
-    <t>dept_name</t>
-  </si>
-  <si>
-    <t>parent_dept_type_code</t>
-  </si>
-  <si>
-    <t>parent_dept_code</t>
-  </si>
-  <si>
-    <t>cost_center_code</t>
-  </si>
-  <si>
-    <t>dept_description</t>
-  </si>
-  <si>
-    <t>Software Engineer</t>
-  </si>
-  <si>
-    <t>sr01</t>
-  </si>
-  <si>
-    <t>Develops and maintains company software products</t>
-  </si>
-  <si>
-    <t>IT001</t>
-  </si>
-  <si>
-    <t>Software Development</t>
-  </si>
-  <si>
-    <t>it01</t>
-  </si>
-  <si>
-    <t>IT002</t>
-  </si>
-  <si>
-    <t>CC1004</t>
-  </si>
-  <si>
-    <t>Application Development</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Handles software, hardware, and security systems</t>
-  </si>
-  <si>
-    <t>Information Technology</t>
-  </si>
-  <si>
-    <t>CC1003</t>
-  </si>
-  <si>
-    <t>IT Infrastructure &amp; Support</t>
-  </si>
-  <si>
-    <t>EMPLOYEE ONBOARDING DATA</t>
-  </si>
-  <si>
-    <t>title_name</t>
-  </si>
-  <si>
-    <t>title_code</t>
-  </si>
-  <si>
-    <t>title_description</t>
-  </si>
-  <si>
-    <t>grade_level</t>
-  </si>
-  <si>
-    <t>employee_number</t>
-  </si>
-  <si>
-    <t>dept_type_code</t>
-  </si>
-  <si>
-    <t>work_location_code</t>
-  </si>
-  <si>
-    <t>work_location_city</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>first_name</t>
-  </si>
-  <si>
-    <t>middle_name</t>
-  </si>
-  <si>
-    <t>last_name</t>
-  </si>
-  <si>
-    <t>display_name</t>
-  </si>
-  <si>
-    <t>date_of_birth</t>
-  </si>
-  <si>
-    <t>gender</t>
-  </si>
-  <si>
-    <t>official_email</t>
-  </si>
-  <si>
-    <t>personal_email</t>
-  </si>
-  <si>
-    <t>mobile_number</t>
-  </si>
-  <si>
-    <t>emergency_contact_name</t>
-  </si>
-  <si>
-    <t>emergency_contact_relationship</t>
-  </si>
-  <si>
-    <t>emergnecy_contact_number</t>
-  </si>
-  <si>
-    <t>date_joined</t>
-  </si>
-  <si>
-    <t>probation_end_date</t>
-  </si>
-  <si>
-    <t>confirmation_date</t>
-  </si>
-  <si>
-    <t>contract_end_date</t>
-  </si>
-  <si>
-    <t>reporting_manager_employee_number</t>
-  </si>
-  <si>
-    <t>reporting_manager_first_name</t>
-  </si>
-  <si>
-    <t>notice_period_days</t>
-  </si>
-  <si>
-    <t>permanent</t>
-  </si>
-  <si>
-    <t>FT01</t>
-  </si>
-  <si>
-    <t>Regular full-time employment</t>
-  </si>
-  <si>
-    <t>se01</t>
-  </si>
-  <si>
-    <t>Developes and maintains software application</t>
-  </si>
-  <si>
-    <t>kl000041</t>
-  </si>
-  <si>
-    <t>Mr</t>
-  </si>
-  <si>
-    <t>Nabeel</t>
-  </si>
-  <si>
-    <t>Hassan</t>
-  </si>
-  <si>
-    <t>Nabeel Hassan</t>
-  </si>
-  <si>
-    <t>male</t>
-  </si>
-  <si>
-    <t>nabeel.hassan@kibalabs.in</t>
-  </si>
-  <si>
-    <t>Hassan Nabeel</t>
-  </si>
-  <si>
-    <t>himself</t>
-  </si>
-  <si>
-    <t>consultant</t>
-  </si>
-  <si>
-    <t>PT01</t>
-  </si>
-  <si>
-    <t>Part-time employment</t>
-  </si>
-  <si>
-    <t>Product Manager</t>
-  </si>
-  <si>
-    <t>pm01</t>
-  </si>
-  <si>
-    <t>Manages Product development lifecycle</t>
-  </si>
-  <si>
-    <t>kl000040</t>
-  </si>
-  <si>
-    <t>Sandeep</t>
-  </si>
-  <si>
-    <t>Chaurasiya</t>
-  </si>
-  <si>
-    <t>Sandeep Chaurasiya</t>
-  </si>
-  <si>
-    <t>sandeep.chaurasiya@kibalabs.in</t>
-  </si>
-  <si>
-    <t>sandeepChaurasiya@gmail.com</t>
-  </si>
-  <si>
-    <t>Chaurasiya ji</t>
-  </si>
-  <si>
-    <t>father</t>
-  </si>
-  <si>
-    <t>contract</t>
-  </si>
-  <si>
-    <t>CT01</t>
-  </si>
-  <si>
-    <t>Fixed-term contract employment</t>
-  </si>
-  <si>
-    <t>HR Manager</t>
-  </si>
-  <si>
-    <t>hr01</t>
-  </si>
-  <si>
-    <t>Oversees human resources opearations</t>
-  </si>
-  <si>
-    <t>kl000039</t>
-  </si>
-  <si>
-    <t>Neyaz</t>
-  </si>
-  <si>
-    <t>Ahmad</t>
-  </si>
-  <si>
-    <t>Neyaz Ahmad</t>
-  </si>
-  <si>
-    <t>neyaz.ahmad@kibalabs.in</t>
-  </si>
-  <si>
-    <t>neyazahmad@gmail.com</t>
-  </si>
-  <si>
-    <t>Ahmad ji</t>
-  </si>
-  <si>
-    <t>EMPLOYEES PERSONAL DETAILS</t>
-  </si>
-  <si>
-    <t>employee_first_name</t>
-  </si>
-  <si>
-    <t>marital_status</t>
-  </si>
-  <si>
-    <t>marriage_date</t>
-  </si>
-  <si>
-    <t>blood_group</t>
-  </si>
-  <si>
-    <t>nationality</t>
-  </si>
-  <si>
-    <t>physically_challenged</t>
-  </si>
-  <si>
-    <t>disability_details</t>
-  </si>
-  <si>
-    <t>father_name</t>
-  </si>
-  <si>
-    <t>mother_name</t>
-  </si>
-  <si>
-    <t>spouse_name</t>
-  </si>
-  <si>
-    <t>spouse_gender</t>
-  </si>
-  <si>
-    <t>residence_number</t>
-  </si>
-  <si>
-    <t>social_media_handles</t>
-  </si>
-  <si>
-    <t>Married</t>
-  </si>
-  <si>
-    <t>B+</t>
-  </si>
-  <si>
-    <t>Indian</t>
-  </si>
-  <si>
-    <t>kiki</t>
-  </si>
-  <si>
-    <t>kaka</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>{"instagram": "neyaz"}</t>
-  </si>
-  <si>
-    <t>AB-</t>
-  </si>
-  <si>
-    <t>Indain</t>
-  </si>
-  <si>
-    <t>lukemia</t>
-  </si>
-  <si>
-    <t>mimi</t>
-  </si>
-  <si>
-    <t>mama</t>
-  </si>
-  <si>
-    <t>{"instagram": "sandeep"}</t>
-  </si>
-  <si>
-    <t>titi</t>
-  </si>
-  <si>
-    <t>tata</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>{"instagram": "beingnabeel"}</t>
-  </si>
-  <si>
-    <t>EMPLOYEE BANKING AND FINANCIAL DETAILS</t>
-  </si>
-  <si>
-    <t>org_pf_number</t>
-  </si>
-  <si>
-    <t>salary_payment_mode</t>
-  </si>
-  <si>
-    <t>pf_details_available</t>
-  </si>
-  <si>
-    <t>pf_joining_date</t>
-  </si>
-  <si>
-    <t>employee_contribution_to_pf</t>
-  </si>
-  <si>
-    <t>uan</t>
-  </si>
-  <si>
-    <t>esi_details_available</t>
-  </si>
-  <si>
-    <t>esi_eligible</t>
-  </si>
-  <si>
-    <t>employer_esi_number</t>
-  </si>
-  <si>
-    <t>lwf_eligible</t>
-  </si>
-  <si>
-    <t>aadhar_number</t>
-  </si>
-  <si>
-    <t>dob_in_aadhar</t>
-  </si>
-  <si>
-    <t>full_name_in_aadhar</t>
-  </si>
-  <si>
-    <t>gender_in_aadhar</t>
-  </si>
-  <si>
-    <t>pan_available</t>
-  </si>
-  <si>
-    <t>pan_number</t>
-  </si>
-  <si>
-    <t>full_name_in_pan</t>
-  </si>
-  <si>
-    <t>dob_in_pan</t>
-  </si>
-  <si>
-    <t>parent_name_in_pan</t>
-  </si>
-  <si>
     <t>employee_bank</t>
   </si>
   <si>
-    <t>HDFCINDS</t>
+    <t>HDFCINDAS</t>
   </si>
   <si>
     <t>salary</t>
@@ -2844,27 +2847,18 @@
     <t>12% of Basic Salary</t>
   </si>
   <si>
-    <t>2356 4665 2334</t>
-  </si>
-  <si>
     <t>XYZWU1234E</t>
   </si>
   <si>
     <t>MAMUM00641480000001270</t>
   </si>
   <si>
-    <t>5678 0987 4567</t>
-  </si>
-  <si>
     <t>ABCS23414E</t>
   </si>
   <si>
     <t>MAMUM00641480000001285</t>
   </si>
   <si>
-    <t>2789 9278 5243</t>
-  </si>
-  <si>
     <t>LKYT12365Y</t>
   </si>
   <si>
@@ -2937,10 +2931,10 @@
     <t>fixed</t>
   </si>
   <si>
-    <t xml:space="preserve">PERCENTAGE  </t>
-  </si>
-  <si>
-    <t>montly</t>
+    <t>PERCENTAGE</t>
+  </si>
+  <si>
+    <t>monthly</t>
   </si>
   <si>
     <t>null</t>
@@ -3108,12 +3102,6 @@
     <t>Monthly Cycle</t>
   </si>
   <si>
-    <t>30-01-2024</t>
-  </si>
-  <si>
-    <t>31-01-2024</t>
-  </si>
-  <si>
     <t>completed</t>
   </si>
   <si>
@@ -3343,9 +3331,6 @@
   </si>
   <si>
     <t>causal</t>
-  </si>
-  <si>
-    <t>monthly</t>
   </si>
   <si>
     <t>HOLIDAY MANAGEMENT</t>
@@ -4084,8 +4069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4263,7 +4248,7 @@
         <v>39</v>
       </c>
       <c r="J3">
-        <v>502157</v>
+        <v>50215</v>
       </c>
       <c r="K3" t="s">
         <v>40</v>
@@ -4350,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C9EB149-39B2-4236-8002-EB131722F266}">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="147" workbookViewId="0">
+    <sheetView zoomScale="147" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
@@ -4371,7 +4356,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4390,37 +4375,37 @@
         <v>122</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>302</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>306</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4431,10 +4416,10 @@
         <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E3" s="9">
         <v>45292</v>
@@ -4460,10 +4445,10 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E4" s="9">
         <v>45388</v>
@@ -4489,10 +4474,10 @@
         <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E5" s="9">
         <v>45690</v>
@@ -4541,7 +4526,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4553,7 +4538,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4562,27 +4547,27 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>314</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>315</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4619,7 +4604,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4646,7 +4631,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4659,7 +4644,7 @@
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4668,54 +4653,54 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>329</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4726,14 +4711,14 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>333</v>
+      <c r="E3" s="9">
+        <v>45321</v>
       </c>
       <c r="F3" s="9">
         <v>45292</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>334</v>
+      <c r="G3" s="9">
+        <v>45322</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -4748,7 +4733,7 @@
         <v>4000000</v>
       </c>
       <c r="L3" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -4766,7 +4751,7 @@
         <v>153</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -4781,7 +4766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7946E-EEA5-43D3-BE03-CE5CA6F9110C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4806,7 +4791,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4825,7 +4810,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4834,45 +4819,45 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>339</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="I2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="M2" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>343</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="L2" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>345</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>346</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4881,13 +4866,13 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="J3" s="9">
         <v>45292</v>
@@ -4907,7 +4892,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="O11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -4923,7 +4908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB38F180-2F2C-4017-A0FF-9CF8FF5EDE00}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="120" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="120" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4951,7 +4936,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -4973,10 +4958,10 @@
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -4985,54 +4970,54 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>350</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="I2" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="I2" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>359</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -5041,25 +5026,25 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G3" t="s">
+        <v>359</v>
+      </c>
+      <c r="H3" t="s">
+        <v>360</v>
+      </c>
+      <c r="K3" t="s">
         <v>361</v>
       </c>
-      <c r="F3" t="s">
+      <c r="L3" t="s">
         <v>362</v>
       </c>
-      <c r="G3" t="s">
+      <c r="M3" s="6" t="s">
         <v>363</v>
-      </c>
-      <c r="H3" t="s">
-        <v>364</v>
-      </c>
-      <c r="K3" t="s">
-        <v>365</v>
-      </c>
-      <c r="L3" t="s">
-        <v>366</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>367</v>
       </c>
       <c r="O3" t="s">
         <v>151</v>
@@ -5076,7 +5061,7 @@
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5092,7 +5077,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD0342-AB7E-4371-A9B1-8F7F40D3C79F}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="116" workbookViewId="0">
+    <sheetView topLeftCell="L1" zoomScale="116" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -5121,7 +5106,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5147,10 +5132,10 @@
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -5171,46 +5156,46 @@
         <v>188</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="M2" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>371</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>372</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="M2" s="12" t="s">
-        <v>374</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>375</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>376</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>145</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -5239,7 +5224,7 @@
         <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -5293,7 +5278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C55244-73ED-4C00-9AAA-1CE3088AB3F0}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5318,7 +5303,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5336,66 +5321,66 @@
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>340</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>380</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G3" s="9">
         <v>45292</v>
@@ -5434,7 +5419,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C445626-36A5-4BAC-BC5B-C092E1D3069C}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -5452,7 +5437,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5465,36 +5450,36 @@
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>383</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>387</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B3" t="s">
         <v>151</v>
@@ -5503,19 +5488,19 @@
         <v>153</v>
       </c>
       <c r="D3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="I3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -5531,7 +5516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771473C8-0ED1-48AE-9391-29EDA379D213}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
@@ -5565,7 +5550,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5587,13 +5572,13 @@
     </row>
     <row r="2" spans="1:24" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>3</v>
@@ -5602,72 +5587,72 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="L2" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="M2" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="N2" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="Q2" s="1" t="s">
         <v>404</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="R2" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>406</v>
       </c>
-      <c r="P2" s="12" t="s">
-        <v>407</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>409</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>410</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -5676,7 +5661,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>412</v>
+        <v>275</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -5726,7 +5711,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="D6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -5742,7 +5727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC6ECD90-1322-416C-B291-E30B25C6AB05}">
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -5765,7 +5750,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -5778,7 +5763,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -5787,31 +5772,31 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>62</v>
@@ -5834,16 +5819,16 @@
         <v>45657</v>
       </c>
       <c r="F3" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="G3" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H3" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I3" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="J3" s="9">
         <v>45292</v>
@@ -5872,16 +5857,16 @@
         <v>45657</v>
       </c>
       <c r="F4" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G4" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="H4" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="I4" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="J4" s="9">
         <v>45519</v>
@@ -5910,16 +5895,16 @@
         <v>45657</v>
       </c>
       <c r="F5" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G5" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H5" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="I5" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="J5" s="9">
         <v>45426</v>
@@ -5928,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -5946,7 +5931,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6127,7 +6112,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" ht="15">
       <c r="A4" t="s">
         <v>76</v>
       </c>
@@ -6203,7 +6188,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586F6509-5C69-49DF-BED7-4ABA7FC1FBF4}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
@@ -6246,7 +6231,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="14.45" customHeight="1">
       <c r="A1" s="15" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -6269,10 +6254,10 @@
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -6281,102 +6266,102 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="K2" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="L2" s="12" t="s">
         <v>435</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="M2" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>437</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>438</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="P2" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>441</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="T2" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="U2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="V2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="X2" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="Z2" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="AA2" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="AB2" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="AD2" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>454</v>
-      </c>
-      <c r="AA2" s="12" t="s">
-        <v>455</v>
-      </c>
-      <c r="AB2" s="12" t="s">
-        <v>456</v>
-      </c>
-      <c r="AC2" s="12" t="s">
-        <v>457</v>
-      </c>
-      <c r="AD2" s="12" t="s">
-        <v>458</v>
-      </c>
       <c r="AE2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6385,7 +6370,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -6394,13 +6379,13 @@
         <v>500</v>
       </c>
       <c r="H3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I3" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="J3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -6424,10 +6409,10 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="W3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -6473,7 +6458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3F032E4-F1D2-4742-B210-8E5737CB9A4C}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -6498,7 +6483,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -6521,10 +6506,10 @@
     </row>
     <row r="2" spans="1:19" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -6533,48 +6518,48 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6583,10 +6568,10 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F3" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -6601,7 +6586,7 @@
         <v>8.5</v>
       </c>
       <c r="L3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="M3" t="s">
         <v>151</v>
@@ -6618,10 +6603,10 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -6630,10 +6615,10 @@
         <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F4" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6651,7 +6636,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="M4" t="s">
         <v>151</v>
@@ -6699,7 +6684,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -6718,28 +6703,28 @@
         <v>188</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6750,10 +6735,10 @@
         <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E3" s="9">
         <v>45747</v>
@@ -6779,10 +6764,10 @@
         <v>181</v>
       </c>
       <c r="C4" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D4" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E4" s="9">
         <v>45717</v>
@@ -6808,10 +6793,10 @@
         <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E5" s="9">
         <v>45721</v>
@@ -6842,7 +6827,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6986,7 +6971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD60CA-9150-40C0-B868-C9DA9FAE1363}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
@@ -7467,8 +7452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE41A9A-53B4-4989-87EB-2AE81B794EBA}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7583,7 +7568,7 @@
         <v>206</v>
       </c>
       <c r="M3">
-        <v>896476</v>
+        <v>8964</v>
       </c>
       <c r="N3" t="s">
         <v>207</v>
@@ -7662,7 +7647,7 @@
         <v>216</v>
       </c>
       <c r="M5">
-        <v>423</v>
+        <v>4435</v>
       </c>
       <c r="N5" t="s">
         <v>217</v>
@@ -7680,8 +7665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B31E7-254D-48AD-B04E-DE0E04DB3E4D}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="P1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7848,31 +7833,31 @@
         <v>181</v>
       </c>
       <c r="C3" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
       </c>
       <c r="G3">
-        <v>325540</v>
+        <v>32554</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I3">
         <v>368821018</v>
       </c>
       <c r="J3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K3" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L3" t="s">
         <v>43</v>
@@ -7881,34 +7866,34 @@
         <v>183</v>
       </c>
       <c r="N3" t="s">
-        <v>242</v>
-      </c>
-      <c r="O3" t="s">
-        <v>83</v>
+        <v>243</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q3" s="9">
         <v>43997</v>
       </c>
       <c r="R3" t="s">
-        <v>244</v>
-      </c>
-      <c r="T3" t="s">
-        <v>83</v>
-      </c>
-      <c r="U3" t="s">
-        <v>83</v>
+        <v>245</v>
+      </c>
+      <c r="T3" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" t="b">
+        <v>1</v>
       </c>
       <c r="V3">
         <v>3.100123456E+16</v>
       </c>
-      <c r="W3" t="s">
-        <v>83</v>
-      </c>
-      <c r="X3" t="s">
-        <v>245</v>
+      <c r="W3" t="b">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>235646652334</v>
       </c>
       <c r="Y3" s="9">
         <v>36221</v>
@@ -7919,8 +7904,8 @@
       <c r="AA3" t="s">
         <v>206</v>
       </c>
-      <c r="AB3" t="s">
-        <v>83</v>
+      <c r="AB3" t="b">
+        <v>1</v>
       </c>
       <c r="AC3" t="s">
         <v>246</v>
@@ -7943,31 +7928,31 @@
         <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
       </c>
       <c r="G4">
-        <v>325540</v>
+        <v>32554</v>
       </c>
       <c r="H4" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I4">
         <v>758833459</v>
       </c>
       <c r="J4" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K4" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -7976,10 +7961,10 @@
         <v>169</v>
       </c>
       <c r="N4" t="s">
-        <v>242</v>
-      </c>
-      <c r="O4" t="s">
-        <v>83</v>
+        <v>243</v>
+      </c>
+      <c r="O4" t="b">
+        <v>1</v>
       </c>
       <c r="P4" t="s">
         <v>247</v>
@@ -7988,19 +7973,19 @@
         <v>44389</v>
       </c>
       <c r="R4" t="s">
-        <v>244</v>
-      </c>
-      <c r="T4" t="s">
-        <v>83</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
+        <v>245</v>
+      </c>
+      <c r="T4" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
       </c>
       <c r="V4">
         <v>3.100123456E+16</v>
       </c>
-      <c r="X4" t="s">
-        <v>248</v>
+      <c r="X4">
+        <v>567809874567</v>
       </c>
       <c r="Y4" s="9">
         <v>37440</v>
@@ -8011,11 +7996,11 @@
       <c r="AA4" t="s">
         <v>206</v>
       </c>
-      <c r="AB4" t="s">
-        <v>83</v>
+      <c r="AB4" t="b">
+        <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD4" t="s">
         <v>169</v>
@@ -8035,31 +8020,31 @@
         <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>238</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
       <c r="G5">
-        <v>325540</v>
+        <v>32554</v>
       </c>
       <c r="H5" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="I5">
         <v>223478905</v>
       </c>
       <c r="J5" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K5" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
@@ -8068,31 +8053,31 @@
         <v>155</v>
       </c>
       <c r="N5" t="s">
-        <v>242</v>
-      </c>
-      <c r="O5" t="s">
-        <v>83</v>
+        <v>243</v>
+      </c>
+      <c r="O5" t="b">
+        <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q5" s="9">
         <v>45566</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="T5" t="s">
-        <v>83</v>
-      </c>
-      <c r="U5" t="s">
-        <v>83</v>
+        <v>245</v>
+      </c>
+      <c r="T5" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
       </c>
       <c r="V5">
         <v>3.100123456E+16</v>
       </c>
-      <c r="X5" t="s">
-        <v>251</v>
+      <c r="X5">
+        <v>278992785243</v>
       </c>
       <c r="Y5" s="9">
         <v>33451</v>
@@ -8103,11 +8088,11 @@
       <c r="AA5" t="s">
         <v>206</v>
       </c>
-      <c r="AB5" t="s">
-        <v>83</v>
+      <c r="AB5" t="b">
+        <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="AD5" s="7" t="s">
         <v>155</v>
@@ -8116,7 +8101,7 @@
         <v>37289</v>
       </c>
       <c r="AF5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -8133,8 +8118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DC832-5353-409E-939C-876616421212}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView topLeftCell="F1" zoomScale="137" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -8171,7 +8156,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -8195,7 +8180,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -8204,52 +8189,52 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="I2" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="12" t="s">
         <v>260</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="P2" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="Q2" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="R2" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>269</v>
-      </c>
-      <c r="R2" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>271</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>96</v>
@@ -8257,7 +8242,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -8266,19 +8251,19 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F3" t="s">
         <v>273</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
         <v>274</v>
       </c>
-      <c r="F3" t="s">
+      <c r="J3" t="s">
         <v>275</v>
-      </c>
-      <c r="G3" t="s">
-        <v>276</v>
-      </c>
-      <c r="J3" t="s">
-        <v>277</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -8296,24 +8281,24 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="T3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -8322,22 +8307,22 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
+        <v>272</v>
+      </c>
+      <c r="F4" t="s">
+        <v>273</v>
+      </c>
+      <c r="G4" t="s">
         <v>274</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
+        <v>281</v>
+      </c>
+      <c r="J4" t="s">
         <v>275</v>
-      </c>
-      <c r="G4" t="s">
-        <v>276</v>
-      </c>
-      <c r="I4" t="s">
-        <v>283</v>
-      </c>
-      <c r="J4" t="s">
-        <v>277</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -8355,24 +8340,24 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="Q4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
+        <v>280</v>
+      </c>
+      <c r="T4" t="s">
         <v>282</v>
-      </c>
-      <c r="T4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="E8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -8388,7 +8373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF7FE45-F9B3-4503-9D18-A5D38DE424DA}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="158" workbookViewId="0">
+    <sheetView zoomScale="158" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -8408,7 +8393,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -8422,7 +8407,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -8431,30 +8416,30 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="J2" s="1" t="s">
         <v>290</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -8463,10 +8448,10 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F3">
         <v>300000</v>
@@ -8478,7 +8463,7 @@
         <v>45292</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -8496,7 +8481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E2E4EC-E767-4843-A6BD-026E33879243}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="142" workbookViewId="0">
+    <sheetView topLeftCell="O1" zoomScale="142" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -8515,7 +8500,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B1" s="15"/>
       <c r="C1" s="15"/>
@@ -8529,48 +8514,48 @@
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>297</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>298</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/kiba_labs_data_sheet_new.xlsx
+++ b/kiba_labs_data_sheet_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28706"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nabeel\AIDIPH-LIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC14A2AD-7C0D-4ED3-A3F0-261709245A57}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D4CBEA-6389-40A4-9301-35B7527CCDEE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organisation_details" sheetId="1" r:id="rId1"/>
@@ -3330,7 +3330,7 @@
     <t>prorata_basis</t>
   </si>
   <si>
-    <t>causal</t>
+    <t>casual</t>
   </si>
   <si>
     <t>HOLIDAY MANAGEMENT</t>
@@ -3501,10 +3501,10 @@
     <t>Morning shift</t>
   </si>
   <si>
-    <t>2025-02-25T09:00:00</t>
-  </si>
-  <si>
-    <t>2025-02-25T18:00:00</t>
+    <t>2024-01-01T9:00:00</t>
+  </si>
+  <si>
+    <t>2024-01-01T5:30:00</t>
   </si>
   <si>
     <t>Standard morning shift with 1 hour break</t>
@@ -3516,10 +3516,10 @@
     <t>flexible</t>
   </si>
   <si>
-    <t>2025-02-27T09:00:00</t>
-  </si>
-  <si>
-    <t>2025-02-27T18:00:00</t>
+    <t>2024-01-01T6:30:00</t>
+  </si>
+  <si>
+    <t>2024-01-01T1:30:00</t>
   </si>
   <si>
     <t>Flexible timing with 2 hours window</t>
@@ -3535,7 +3535,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3629,6 +3629,12 @@
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242424"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -3745,7 +3751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3765,6 +3771,7 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4109,20 +4116,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.45" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:31" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4355,20 +4362,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
     </row>
     <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4525,16 +4532,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4630,17 +4637,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4766,7 +4773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F7946E-EEA5-43D3-BE03-CE5CA6F9110C}">
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
@@ -4790,23 +4797,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>333</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4908,7 +4915,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB38F180-2F2C-4017-A0FF-9CF8FF5EDE00}">
   <dimension ref="A1:R26"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="120" workbookViewId="0">
+    <sheetView zoomScale="120" workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
@@ -4935,26 +4942,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5077,7 +5084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFD0342-AB7E-4371-A9B1-8F7F40D3C79F}">
   <dimension ref="A1:V3"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScale="116" workbookViewId="0">
+    <sheetView zoomScale="116" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
@@ -5105,30 +5112,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5278,7 +5285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C55244-73ED-4C00-9AAA-1CE3088AB3F0}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="E8" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5302,22 +5309,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5436,17 +5443,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="1" t="s">
@@ -5516,8 +5523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771473C8-0ED1-48AE-9391-29EDA379D213}">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -5549,26 +5556,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
     </row>
     <row r="2" spans="1:24" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5749,17 +5756,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5960,30 +5967,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="19"/>
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="13" t="s">
@@ -6188,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{586F6509-5C69-49DF-BED7-4ABA7FC1FBF4}">
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6230,27 +6237,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.45" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -6459,7 +6466,7 @@
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6468,7 +6475,8 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -6482,27 +6490,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
     </row>
     <row r="2" spans="1:19" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -6554,7 +6562,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" ht="15">
       <c r="A3" t="s">
         <v>463</v>
       </c>
@@ -6567,10 +6575,10 @@
       <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>465</v>
       </c>
       <c r="H3">
@@ -6601,7 +6609,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="15">
       <c r="A4" t="s">
         <v>467</v>
       </c>
@@ -6614,10 +6622,10 @@
       <c r="D4" t="s">
         <v>37</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>470</v>
       </c>
       <c r="G4">
@@ -6683,17 +6691,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -6827,7 +6835,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6845,19 +6853,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
@@ -6971,8 +6979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD60CA-9150-40C0-B868-C9DA9FAE1363}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -7012,32 +7020,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="21" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -7333,7 +7341,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:34" ht="14.45">
+    <row r="5" spans="1:34">
       <c r="A5" t="s">
         <v>174</v>
       </c>
@@ -7452,8 +7460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE41A9A-53B4-4989-87EB-2AE81B794EBA}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7475,22 +7483,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="18"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="19"/>
     </row>
     <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -7665,7 +7673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B31E7-254D-48AD-B04E-DE0E04DB3E4D}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="117" workbookViewId="0">
+    <sheetView zoomScale="117" workbookViewId="0">
       <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
@@ -7704,28 +7712,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.45">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="22"/>
     </row>
     <row r="2" spans="1:32" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -8155,28 +8163,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
     </row>
     <row r="2" spans="1:20" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -8392,18 +8400,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -8481,7 +8489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4E2E4EC-E767-4843-A6BD-026E33879243}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView topLeftCell="O1" zoomScale="142" workbookViewId="0">
+    <sheetView zoomScale="142" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -8499,18 +8507,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">

--- a/kiba_labs_data_sheet_new.xlsx
+++ b/kiba_labs_data_sheet_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28706"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28712"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nabeel\AIDIPH-LIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25D4CBEA-6389-40A4-9301-35B7527CCDEE}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E5A380-9CC2-4F9D-8C80-A52C7D1BDCCB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="17" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organisation_details" sheetId="1" r:id="rId1"/>
@@ -2107,7 +2107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="864" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="476">
   <si>
     <t>ORGANISATIONS ESTABLISHMENT AND FINANCIAL DETAILS</t>
   </si>
@@ -2373,16 +2373,25 @@
     <t>Asia/Kolkata</t>
   </si>
   <si>
-    <t>pat02</t>
+    <t>kar</t>
+  </si>
+  <si>
+    <t>karnataka</t>
+  </si>
+  <si>
+    <t>Bangalore</t>
+  </si>
+  <si>
+    <t>ban01</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Boaring road</t>
-  </si>
-  <si>
-    <t>Near Sai Mandir Spti building</t>
+    <t>whitefield</t>
+  </si>
+  <si>
+    <t>1st floor, near btm layout</t>
   </si>
   <si>
     <t>nabeelhassan17808@gmail.com</t>
@@ -2433,24 +2442,24 @@
     <t>Software Development</t>
   </si>
   <si>
+    <t>CC104</t>
+  </si>
+  <si>
+    <t>Application Development</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
     <t>it01</t>
   </si>
   <si>
+    <t>Handles software, hardware, and security systems</t>
+  </si>
+  <si>
     <t>IT002</t>
   </si>
   <si>
-    <t>CC104</t>
-  </si>
-  <si>
-    <t>Application Development</t>
-  </si>
-  <si>
-    <t>IT</t>
-  </si>
-  <si>
-    <t>Handles software, hardware, and security systems</t>
-  </si>
-  <si>
     <t>Information Technology</t>
   </si>
   <si>
@@ -2592,7 +2601,7 @@
     <t>consultant</t>
   </si>
   <si>
-    <t>PT01</t>
+    <t>CN01</t>
   </si>
   <si>
     <t>Part-time employment</t>
@@ -4076,7 +4085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
@@ -4363,7 +4372,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4379,54 +4388,54 @@
     </row>
     <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E3" s="9">
         <v>45292</v>
@@ -4446,16 +4455,16 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D4" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E4" s="9">
         <v>45388</v>
@@ -4475,16 +4484,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="D5" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E5" s="9">
         <v>45690</v>
@@ -4533,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4545,7 +4554,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4554,27 +4563,27 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4638,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4651,7 +4660,7 @@
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4660,54 +4669,54 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4740,25 +4749,25 @@
         <v>4000000</v>
       </c>
       <c r="L3" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -4798,7 +4807,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4817,7 +4826,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4826,45 +4835,45 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4873,33 +4882,33 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F3" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="J3" s="9">
         <v>45292</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="N3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="O11" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -4943,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4965,10 +4974,10 @@
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -4977,54 +4986,54 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -5033,42 +5042,42 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F3" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G3" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="H3" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="K3" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="L3" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="O3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="R3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5113,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5139,10 +5148,10 @@
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -5151,66 +5160,66 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:22">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -5219,19 +5228,19 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -5261,16 +5270,16 @@
         <v>15</v>
       </c>
       <c r="S3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="T3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="U3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="V3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5285,7 +5294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C55244-73ED-4C00-9AAA-1CE3088AB3F0}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView topLeftCell="E8" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5310,7 +5319,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5328,87 +5337,87 @@
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="E3" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="G3" s="9">
         <v>45292</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="O3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5444,7 +5453,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5457,57 +5466,57 @@
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="I3" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5557,7 +5566,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5579,13 +5588,13 @@
     </row>
     <row r="2" spans="1:24" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>3</v>
@@ -5594,72 +5603,72 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -5668,7 +5677,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -5704,21 +5713,21 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="V3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="W3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="X3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="D6" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -5757,7 +5766,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5770,7 +5779,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -5779,31 +5788,31 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>62</v>
@@ -5826,16 +5835,16 @@
         <v>45657</v>
       </c>
       <c r="F3" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="G3" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H3" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I3" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="J3" s="9">
         <v>45292</v>
@@ -5864,16 +5873,16 @@
         <v>45657</v>
       </c>
       <c r="F4" t="s">
+        <v>423</v>
+      </c>
+      <c r="G4" t="s">
         <v>420</v>
       </c>
-      <c r="G4" t="s">
-        <v>417</v>
-      </c>
       <c r="H4" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="I4" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="J4" s="9">
         <v>45519</v>
@@ -5902,16 +5911,16 @@
         <v>45657</v>
       </c>
       <c r="F5" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="G5" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H5" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="I5" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="J5" s="9">
         <v>45426</v>
@@ -5920,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -5938,7 +5947,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -5959,7 +5968,7 @@
     <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="26.140625" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="21" width="7.42578125" customWidth="1"/>
@@ -6139,40 +6148,40 @@
         <v>37</v>
       </c>
       <c r="G4" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="J4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="M4" t="s">
         <v>83</v>
       </c>
       <c r="N4" t="s">
+        <v>93</v>
+      </c>
+      <c r="O4" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" t="s">
         <v>90</v>
       </c>
-      <c r="O4" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>81</v>
-      </c>
       <c r="R4">
-        <v>800002</v>
+        <v>240568</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="V4" t="s">
         <v>87</v>
@@ -6238,7 +6247,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="14.45" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6261,10 +6270,10 @@
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -6273,102 +6282,102 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="Q2" s="12" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="Z2" s="12" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="AA2" s="12" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="AC2" s="12" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="AD2" s="12" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6377,7 +6386,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -6386,13 +6395,13 @@
         <v>500</v>
       </c>
       <c r="H3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="I3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="J3" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -6416,10 +6425,10 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="W3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -6440,16 +6449,16 @@
         <v>2</v>
       </c>
       <c r="AE3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AF3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AG3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AH3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6491,7 +6500,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6514,10 +6523,10 @@
     </row>
     <row r="2" spans="1:19" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -6526,48 +6535,48 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15">
       <c r="A3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6576,10 +6585,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -6594,27 +6603,27 @@
         <v>8.5</v>
       </c>
       <c r="L3" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="M3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="15">
       <c r="A4" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -6623,10 +6632,10 @@
         <v>37</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6644,19 +6653,19 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="N4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="O4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6692,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6705,121 +6714,121 @@
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E3" s="9">
         <v>45747</v>
       </c>
       <c r="G3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="D4" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="E4" s="9">
         <v>45717</v>
       </c>
       <c r="G4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E5" s="9">
         <v>45721</v>
       </c>
       <c r="G5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="I5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -6834,8 +6843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0F9FA7-C132-473D-AA3C-1F3E68753829}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -6854,7 +6863,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -6869,13 +6878,13 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="14" t="s">
         <v>3</v>
@@ -6884,33 +6893,33 @@
         <v>7</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.9">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="30.75">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>34</v>
@@ -6919,33 +6928,29 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>109</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
       <c r="J3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="28.9">
       <c r="A4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>34</v>
@@ -6954,16 +6959,16 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="J4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="K4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -6979,8 +6984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33BD60CA-9150-40C0-B868-C9DA9FAE1363}">
   <dimension ref="A1:AH5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="U11" sqref="U11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -7021,7 +7026,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="21" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7049,13 +7054,13 @@
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>3</v>
@@ -7064,102 +7069,102 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="P2" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="S2" s="12" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="T2" s="12" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="U2" s="12" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="V2" s="12" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="X2" s="12" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AB2" s="12" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AH2" s="12" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="28.9">
       <c r="A3" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -7168,25 +7173,25 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="I3">
         <v>5</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="K3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L3" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M3" t="s">
         <v>82</v>
@@ -7195,25 +7200,25 @@
         <v>81</v>
       </c>
       <c r="O3" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="R3" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="S3" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="T3" s="9">
         <v>36951</v>
       </c>
       <c r="U3" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>86</v>
@@ -7222,10 +7227,10 @@
         <v>9852369870</v>
       </c>
       <c r="Y3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Z3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AA3">
         <v>9608020606</v>
@@ -7245,13 +7250,13 @@
     </row>
     <row r="4" spans="1:34" ht="14.45">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -7260,25 +7265,25 @@
         <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I4">
         <v>6</v>
       </c>
       <c r="J4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="K4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="L4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M4" t="s">
         <v>82</v>
@@ -7287,37 +7292,37 @@
         <v>81</v>
       </c>
       <c r="O4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="R4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="S4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="T4" s="9">
         <v>35553</v>
       </c>
       <c r="U4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="X4">
         <v>9899559598</v>
       </c>
       <c r="Y4" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Z4" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AA4">
         <v>9899559598</v>
@@ -7332,10 +7337,10 @@
         <v>45691</v>
       </c>
       <c r="AF4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AG4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AH4">
         <v>60</v>
@@ -7343,13 +7348,13 @@
     </row>
     <row r="5" spans="1:34">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
@@ -7358,64 +7363,64 @@
         <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="G5" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="I5">
         <v>7</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K5" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="L5" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="M5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="O5" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="R5" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="S5" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="T5" s="9">
         <v>33299</v>
       </c>
       <c r="U5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="X5">
         <v>9608020606</v>
       </c>
       <c r="Y5" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Z5" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="AA5">
         <v>9852369870</v>
@@ -7430,10 +7435,10 @@
         <v>44961</v>
       </c>
       <c r="AF5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AG5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="AH5">
         <v>60</v>
@@ -7484,7 +7489,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1">
       <c r="A1" s="17" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -7502,163 +7507,163 @@
     </row>
     <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D3" s="9">
         <v>45649</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="J3" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="L3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M3">
         <v>8964</v>
       </c>
       <c r="N3" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D4" s="9">
         <v>44177</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="F4" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="I4" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="J4" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="L4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="M4">
         <v>3245</v>
       </c>
       <c r="N4" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D5" s="9">
         <v>45177</v>
       </c>
       <c r="E5" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="J5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M5">
         <v>4435</v>
       </c>
       <c r="N5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -7713,7 +7718,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="20.45">
       <c r="A1" s="20" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -7737,16 +7742,16 @@
     </row>
     <row r="2" spans="1:32" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="E2" s="12" t="s">
         <v>8</v>
@@ -7776,78 +7781,78 @@
         <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="X2" s="1" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AA2" s="1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:32" ht="28.9">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -7856,37 +7861,37 @@
         <v>32554</v>
       </c>
       <c r="H3" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I3">
         <v>368821018</v>
       </c>
       <c r="J3" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K3" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L3" t="s">
         <v>43</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q3" s="9">
         <v>43997</v>
       </c>
       <c r="R3" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -7907,42 +7912,42 @@
         <v>36221</v>
       </c>
       <c r="Z3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AA3" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AB3" t="b">
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AD3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AE3" s="9">
         <v>36221</v>
       </c>
       <c r="AF3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:32" ht="28.9">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -7951,37 +7956,37 @@
         <v>32554</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I4">
         <v>758833459</v>
       </c>
       <c r="J4" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K4" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
       </c>
       <c r="M4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q4" s="9">
         <v>44389</v>
       </c>
       <c r="R4" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -7999,42 +8004,42 @@
         <v>37440</v>
       </c>
       <c r="Z4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AB4" t="b">
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AD4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AE4" s="9">
         <v>36195</v>
       </c>
       <c r="AF4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="28.9">
       <c r="A5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -8043,37 +8048,37 @@
         <v>32554</v>
       </c>
       <c r="H5" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="I5">
         <v>223478905</v>
       </c>
       <c r="J5" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="K5" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
       </c>
       <c r="M5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="N5" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q5" s="9">
         <v>45566</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -8091,25 +8096,25 @@
         <v>33451</v>
       </c>
       <c r="Z5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AA5" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="AB5" t="b">
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AD5" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="AE5" s="9">
         <v>37289</v>
       </c>
       <c r="AF5" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -8126,7 +8131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DC832-5353-409E-939C-876616421212}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="137" workbookViewId="0">
+    <sheetView zoomScale="137" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -8164,7 +8169,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8188,7 +8193,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -8197,60 +8202,60 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L2" s="12" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M2" s="12" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="N2" s="12" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O2" s="12" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R2" s="12" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -8259,19 +8264,19 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="E3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G3" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="J3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -8289,24 +8294,24 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="T3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -8315,22 +8320,22 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="E4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F4" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G4" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I4" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="J4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -8348,24 +8353,24 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q4" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="T4" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="E8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -8401,7 +8406,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8415,7 +8420,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -8424,30 +8429,30 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -8456,10 +8461,10 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="E3" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="F3">
         <v>300000</v>
@@ -8471,7 +8476,7 @@
         <v>45292</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -8508,7 +8513,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8522,48 +8527,48 @@
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C3" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D3" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/kiba_labs_data_sheet_new.xlsx
+++ b/kiba_labs_data_sheet_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28712"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nabeel\AIDIPH-LIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="111" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D6E5A380-9CC2-4F9D-8C80-A52C7D1BDCCB}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71ADF63-0E4D-486B-9F29-EA0B102EB16A}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organisation_details" sheetId="1" r:id="rId1"/>
@@ -2107,7 +2107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="475">
   <si>
     <t>ORGANISATIONS ESTABLISHMENT AND FINANCIAL DETAILS</t>
   </si>
@@ -2830,9 +2830,6 @@
   </si>
   <si>
     <t>parent_name_in_pan</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> IT2024BR</t>
   </si>
   <si>
     <t>employee_bank</t>
@@ -3760,7 +3757,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3801,6 +3798,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4085,8 +4085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE8"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+    <sheetView topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -4372,7 +4372,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4391,37 +4391,37 @@
         <v>125</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="C2" s="12" t="s">
-        <v>287</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>304</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>308</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -4432,10 +4432,10 @@
         <v>184</v>
       </c>
       <c r="C3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D3" t="s">
         <v>294</v>
-      </c>
-      <c r="D3" t="s">
-        <v>295</v>
       </c>
       <c r="E3" s="9">
         <v>45292</v>
@@ -4461,10 +4461,10 @@
         <v>170</v>
       </c>
       <c r="C4" t="s">
+        <v>293</v>
+      </c>
+      <c r="D4" t="s">
         <v>294</v>
-      </c>
-      <c r="D4" t="s">
-        <v>295</v>
       </c>
       <c r="E4" s="9">
         <v>45388</v>
@@ -4490,10 +4490,10 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D5" t="s">
         <v>294</v>
-      </c>
-      <c r="D5" t="s">
-        <v>295</v>
       </c>
       <c r="E5" s="9">
         <v>45690</v>
@@ -4542,7 +4542,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4554,7 +4554,7 @@
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4563,27 +4563,27 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>316</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4647,7 +4647,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4669,54 +4669,54 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>321</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>323</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>331</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4749,7 +4749,7 @@
         <v>4000000</v>
       </c>
       <c r="L3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M3" t="b">
         <v>1</v>
@@ -4767,7 +4767,7 @@
         <v>156</v>
       </c>
       <c r="R3" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +4807,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4826,7 +4826,7 @@
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -4835,45 +4835,45 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>341</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="L2" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>343</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>345</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -4882,13 +4882,13 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" t="s">
         <v>348</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>349</v>
-      </c>
-      <c r="F3" t="s">
-        <v>350</v>
       </c>
       <c r="J3" s="9">
         <v>45292</v>
@@ -4908,7 +4908,7 @@
     </row>
     <row r="11" spans="1:15">
       <c r="O11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -4952,7 +4952,7 @@
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -4974,10 +4974,10 @@
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -4986,54 +4986,54 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>355</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="O2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="R2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="28.9">
       <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" t="s">
-        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -5042,25 +5042,25 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
+        <v>359</v>
+      </c>
+      <c r="F3" t="s">
         <v>360</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>361</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>362</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>363</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>364</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" s="6" t="s">
         <v>365</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>366</v>
       </c>
       <c r="O3" t="s">
         <v>154</v>
@@ -5077,7 +5077,7 @@
     </row>
     <row r="26" spans="13:13">
       <c r="M26" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5122,7 +5122,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5148,10 +5148,10 @@
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>367</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>368</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -5172,46 +5172,46 @@
         <v>191</v>
       </c>
       <c r="I2" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="J2" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="1" t="s">
         <v>371</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>374</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>375</v>
       </c>
       <c r="P2" s="12" t="s">
         <v>148</v>
       </c>
       <c r="Q2" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="R2" s="12" t="s">
-        <v>377</v>
-      </c>
       <c r="S2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -5240,7 +5240,7 @@
         <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J3">
         <v>6</v>
@@ -5319,7 +5319,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5337,66 +5337,66 @@
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>339</v>
-      </c>
       <c r="C2" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>291</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>382</v>
-      </c>
       <c r="J2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="L2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="O2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
         <v>348</v>
       </c>
-      <c r="B3" t="s">
-        <v>349</v>
-      </c>
       <c r="C3" t="s">
+        <v>382</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" t="s">
         <v>384</v>
-      </c>
-      <c r="E3" t="s">
-        <v>385</v>
       </c>
       <c r="G3" s="9">
         <v>45292</v>
@@ -5453,7 +5453,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5466,36 +5466,36 @@
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>125</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="1" t="s">
         <v>387</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>388</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>389</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B3" t="s">
         <v>154</v>
@@ -5504,19 +5504,19 @@
         <v>156</v>
       </c>
       <c r="D3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F3" t="s">
+        <v>390</v>
+      </c>
+      <c r="G3" t="s">
         <v>391</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="I3" t="s">
         <v>393</v>
-      </c>
-      <c r="I3" t="s">
-        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -5566,7 +5566,7 @@
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5588,13 +5588,13 @@
     </row>
     <row r="2" spans="1:24" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="C2" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="D2" s="12" t="s">
         <v>3</v>
@@ -5603,72 +5603,72 @@
         <v>7</v>
       </c>
       <c r="F2" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>396</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>404</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="12" t="s">
         <v>407</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>408</v>
       </c>
-      <c r="S2" s="12" t="s">
-        <v>409</v>
-      </c>
       <c r="T2" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="U2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="V2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="X2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C3" t="s">
         <v>348</v>
-      </c>
-      <c r="C3" t="s">
-        <v>349</v>
       </c>
       <c r="D3" t="s">
         <v>34</v>
@@ -5677,7 +5677,7 @@
         <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G3">
         <v>12</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="6" spans="1:24">
       <c r="D6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5766,7 +5766,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -5779,7 +5779,7 @@
     </row>
     <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -5788,31 +5788,31 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="E2" s="12" t="s">
-        <v>321</v>
-      </c>
       <c r="F2" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>414</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>415</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="J2" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="1" t="s">
         <v>417</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>418</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>62</v>
@@ -5835,16 +5835,16 @@
         <v>45657</v>
       </c>
       <c r="F3" t="s">
+        <v>418</v>
+      </c>
+      <c r="G3" t="s">
         <v>419</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>420</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>421</v>
-      </c>
-      <c r="I3" t="s">
-        <v>422</v>
       </c>
       <c r="J3" s="9">
         <v>45292</v>
@@ -5873,16 +5873,16 @@
         <v>45657</v>
       </c>
       <c r="F4" t="s">
+        <v>422</v>
+      </c>
+      <c r="G4" t="s">
+        <v>419</v>
+      </c>
+      <c r="H4" t="s">
+        <v>420</v>
+      </c>
+      <c r="I4" t="s">
         <v>423</v>
-      </c>
-      <c r="G4" t="s">
-        <v>420</v>
-      </c>
-      <c r="H4" t="s">
-        <v>421</v>
-      </c>
-      <c r="I4" t="s">
-        <v>424</v>
       </c>
       <c r="J4" s="9">
         <v>45519</v>
@@ -5911,16 +5911,16 @@
         <v>45657</v>
       </c>
       <c r="F5" t="s">
+        <v>424</v>
+      </c>
+      <c r="G5" t="s">
         <v>425</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>426</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>427</v>
-      </c>
-      <c r="I5" t="s">
-        <v>428</v>
       </c>
       <c r="J5" s="9">
         <v>45426</v>
@@ -5929,7 +5929,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -6247,7 +6247,7 @@
   <sheetData>
     <row r="1" spans="1:34" ht="14.45" customHeight="1">
       <c r="A1" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6270,10 +6270,10 @@
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
+        <v>337</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>338</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>339</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -6282,102 +6282,102 @@
         <v>7</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="12" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>439</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="Q2" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="R2" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>446</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>447</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="Y2" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="AA2" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AB2" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="AB2" s="12" t="s">
+      <c r="AC2" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="AC2" s="12" t="s">
+      <c r="AD2" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="AD2" s="12" t="s">
-        <v>456</v>
-      </c>
       <c r="AE2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AF2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="AG2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="AH2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:34">
       <c r="A3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B3" t="s">
         <v>348</v>
-      </c>
-      <c r="B3" t="s">
-        <v>349</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6386,7 +6386,7 @@
         <v>37</v>
       </c>
       <c r="E3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
@@ -6395,13 +6395,13 @@
         <v>500</v>
       </c>
       <c r="H3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="I3" t="s">
+        <v>457</v>
+      </c>
+      <c r="J3" t="s">
         <v>458</v>
-      </c>
-      <c r="J3" t="s">
-        <v>459</v>
       </c>
       <c r="L3">
         <v>15</v>
@@ -6425,10 +6425,10 @@
         <v>30</v>
       </c>
       <c r="U3" t="s">
+        <v>459</v>
+      </c>
+      <c r="W3" t="s">
         <v>460</v>
-      </c>
-      <c r="W3" t="s">
-        <v>461</v>
       </c>
       <c r="X3" t="b">
         <v>0</v>
@@ -6500,7 +6500,7 @@
   <sheetData>
     <row r="1" spans="1:19" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6523,10 +6523,10 @@
     </row>
     <row r="2" spans="1:19" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>3</v>
@@ -6535,48 +6535,48 @@
         <v>7</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="I2" s="12" t="s">
         <v>437</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>439</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="O2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="P2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="15">
       <c r="A3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C3" t="s">
         <v>34</v>
@@ -6585,10 +6585,10 @@
         <v>37</v>
       </c>
       <c r="E3" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="F3" s="15" t="s">
         <v>467</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>468</v>
       </c>
       <c r="H3">
         <v>60</v>
@@ -6603,7 +6603,7 @@
         <v>8.5</v>
       </c>
       <c r="L3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="M3" t="s">
         <v>154</v>
@@ -6620,10 +6620,10 @@
     </row>
     <row r="4" spans="1:19" ht="15">
       <c r="A4" t="s">
+        <v>469</v>
+      </c>
+      <c r="B4" t="s">
         <v>470</v>
-      </c>
-      <c r="B4" t="s">
-        <v>471</v>
       </c>
       <c r="C4" t="s">
         <v>34</v>
@@ -6632,10 +6632,10 @@
         <v>37</v>
       </c>
       <c r="E4" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="F4" s="15" t="s">
         <v>472</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>473</v>
       </c>
       <c r="G4">
         <v>2</v>
@@ -6653,7 +6653,7 @@
         <v>8</v>
       </c>
       <c r="L4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="M4" t="s">
         <v>154</v>
@@ -6701,7 +6701,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -6720,28 +6720,28 @@
         <v>191</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E2" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>292</v>
-      </c>
       <c r="G2" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>345</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6752,10 +6752,10 @@
         <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E3" s="9">
         <v>45747</v>
@@ -6781,10 +6781,10 @@
         <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D4" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E4" s="9">
         <v>45717</v>
@@ -6810,10 +6810,10 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E5" s="9">
         <v>45721</v>
@@ -6843,7 +6843,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D0F9FA7-C132-473D-AA3C-1F3E68753829}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -7678,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B31E7-254D-48AD-B04E-DE0E04DB3E4D}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7838,7 +7838,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="28.9">
+    <row r="3" spans="1:32" ht="30.75">
       <c r="A3" t="s">
         <v>183</v>
       </c>
@@ -7846,13 +7846,13 @@
         <v>184</v>
       </c>
       <c r="C3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
         <v>241</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" t="s">
-        <v>242</v>
       </c>
       <c r="F3" t="s">
         <v>39</v>
@@ -7861,16 +7861,16 @@
         <v>32554</v>
       </c>
       <c r="H3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I3">
         <v>368821018</v>
       </c>
       <c r="J3" t="s">
+        <v>243</v>
+      </c>
+      <c r="K3" t="s">
         <v>244</v>
-      </c>
-      <c r="K3" t="s">
-        <v>245</v>
       </c>
       <c r="L3" t="s">
         <v>43</v>
@@ -7879,19 +7879,19 @@
         <v>186</v>
       </c>
       <c r="N3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O3" t="b">
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="Q3" s="9">
         <v>43997</v>
       </c>
       <c r="R3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T3" t="b">
         <v>0</v>
@@ -7921,7 +7921,7 @@
         <v>1</v>
       </c>
       <c r="AC3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AD3" t="s">
         <v>186</v>
@@ -7933,7 +7933,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="28.9">
+    <row r="4" spans="1:32" ht="30.75">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -7941,13 +7941,13 @@
         <v>170</v>
       </c>
       <c r="C4" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F4" t="s">
         <v>39</v>
@@ -7956,16 +7956,16 @@
         <v>32554</v>
       </c>
       <c r="H4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I4">
         <v>758833459</v>
       </c>
       <c r="J4" t="s">
+        <v>243</v>
+      </c>
+      <c r="K4" t="s">
         <v>244</v>
-      </c>
-      <c r="K4" t="s">
-        <v>245</v>
       </c>
       <c r="L4" t="s">
         <v>43</v>
@@ -7974,19 +7974,19 @@
         <v>172</v>
       </c>
       <c r="N4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O4" t="b">
         <v>1</v>
       </c>
       <c r="P4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="Q4" s="9">
         <v>44389</v>
       </c>
       <c r="R4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T4" t="b">
         <v>0</v>
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="AC4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AD4" t="s">
         <v>172</v>
@@ -8025,7 +8025,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="28.9">
+    <row r="5" spans="1:32" ht="30.75">
       <c r="A5" t="s">
         <v>154</v>
       </c>
@@ -8033,13 +8033,13 @@
         <v>156</v>
       </c>
       <c r="C5" t="s">
-        <v>241</v>
+        <v>49</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -8048,16 +8048,16 @@
         <v>32554</v>
       </c>
       <c r="H5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I5">
         <v>223478905</v>
       </c>
       <c r="J5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K5" t="s">
         <v>244</v>
-      </c>
-      <c r="K5" t="s">
-        <v>245</v>
       </c>
       <c r="L5" t="s">
         <v>43</v>
@@ -8066,19 +8066,19 @@
         <v>158</v>
       </c>
       <c r="N5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="O5" t="b">
         <v>1</v>
       </c>
       <c r="P5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="9">
         <v>45566</v>
       </c>
       <c r="R5" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="T5" t="b">
         <v>0</v>
@@ -8105,7 +8105,7 @@
         <v>1</v>
       </c>
       <c r="AC5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AD5" s="7" t="s">
         <v>158</v>
@@ -8114,7 +8114,7 @@
         <v>37289</v>
       </c>
       <c r="AF5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -8169,7 +8169,7 @@
   <sheetData>
     <row r="1" spans="1:20" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="2" spans="1:20" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -8202,52 +8202,52 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>265</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="P2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="1" t="s">
         <v>271</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>272</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>99</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -8264,19 +8264,19 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E3" t="s">
         <v>274</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>275</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>276</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>277</v>
-      </c>
-      <c r="J3" t="s">
-        <v>278</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -8294,24 +8294,24 @@
         <v>1</v>
       </c>
       <c r="P3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R3">
         <v>0</v>
       </c>
       <c r="S3" t="s">
+        <v>279</v>
+      </c>
+      <c r="T3" t="s">
         <v>280</v>
-      </c>
-      <c r="T3" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
@@ -8320,22 +8320,22 @@
         <v>37</v>
       </c>
       <c r="D4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F4" t="s">
+        <v>275</v>
+      </c>
+      <c r="G4" t="s">
+        <v>276</v>
+      </c>
+      <c r="I4" t="s">
         <v>283</v>
       </c>
-      <c r="E4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F4" t="s">
-        <v>276</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="J4" t="s">
         <v>277</v>
-      </c>
-      <c r="I4" t="s">
-        <v>284</v>
-      </c>
-      <c r="J4" t="s">
-        <v>278</v>
       </c>
       <c r="K4" t="b">
         <v>1</v>
@@ -8353,24 +8353,24 @@
         <v>0</v>
       </c>
       <c r="P4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="Q4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="R4">
         <v>0</v>
       </c>
       <c r="S4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="T4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="E8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -8406,7 +8406,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8420,7 +8420,7 @@
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B2" s="12" t="s">
         <v>3</v>
@@ -8429,30 +8429,30 @@
         <v>7</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>99</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>292</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B3" t="s">
         <v>34</v>
@@ -8461,10 +8461,10 @@
         <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E3" t="s">
         <v>295</v>
-      </c>
-      <c r="E3" t="s">
-        <v>296</v>
       </c>
       <c r="F3">
         <v>300000</v>
@@ -8476,7 +8476,7 @@
         <v>45292</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -8513,7 +8513,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
       <c r="A1" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -8527,48 +8527,48 @@
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>288</v>
-      </c>
       <c r="C2" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>258</v>
-      </c>
       <c r="E2" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>299</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>300</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B3" t="s">
         <v>294</v>
       </c>
-      <c r="B3" t="s">
-        <v>295</v>
-      </c>
       <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
         <v>274</v>
-      </c>
-      <c r="D3" t="s">
-        <v>275</v>
       </c>
       <c r="E3">
         <v>1</v>

--- a/kiba_labs_data_sheet_new.xlsx
+++ b/kiba_labs_data_sheet_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28723"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Nabeel\AIDIPH-LIVE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="117" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D71ADF63-0E4D-486B-9F29-EA0B102EB16A}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="13_ncr:1_{A5A4070F-D38F-4014-BE47-610EF6C61807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6503995F-9CF7-4C59-BB22-55E9EBD0026E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="15" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="organisation_details" sheetId="1" r:id="rId1"/>
@@ -3778,6 +3778,9 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3798,9 +3801,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4125,20 +4125,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="14.45" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:31" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4371,20 +4371,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>301</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
     </row>
     <row r="2" spans="1:12" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4541,16 +4541,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4646,17 +4646,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4806,23 +4806,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>335</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -4951,26 +4951,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:18" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5121,30 +5121,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5294,8 +5294,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C55244-73ED-4C00-9AAA-1CE3088AB3F0}">
   <dimension ref="A1:O3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -5318,22 +5318,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:15" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5411,7 +5411,7 @@
         <v>154</v>
       </c>
       <c r="M3" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="N3" t="s">
         <v>154</v>
@@ -5452,17 +5452,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:9" ht="15.6">
       <c r="A2" s="1" t="s">
@@ -5565,26 +5565,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="14.45" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>350</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
     </row>
     <row r="2" spans="1:24" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5765,17 +5765,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>410</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:13" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -5976,30 +5976,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="14.45" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="20"/>
     </row>
     <row r="2" spans="1:22" ht="15.6">
       <c r="A2" s="13" t="s">
@@ -6246,27 +6246,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="14.45" customHeight="1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -6499,27 +6499,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
     </row>
     <row r="2" spans="1:19" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -6700,17 +6700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>429</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -6862,19 +6862,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="21" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="14" t="s">
@@ -7025,32 +7025,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="21" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="20"/>
     </row>
     <row r="2" spans="1:34" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -7488,22 +7488,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="14.45" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>190</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="20"/>
     </row>
     <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -7678,8 +7678,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2B31E7-254D-48AD-B04E-DE0E04DB3E4D}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="117" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -7717,28 +7717,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="20.45">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>221</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21"/>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="22"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23"/>
     </row>
     <row r="2" spans="1:32" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -7848,7 +7848,7 @@
       <c r="C3" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E3" t="s">
@@ -7995,7 +7995,7 @@
         <v>1</v>
       </c>
       <c r="V4">
-        <v>3.100123456E+16</v>
+        <v>3.100223456E+16</v>
       </c>
       <c r="X4">
         <v>567809874567</v>
@@ -8087,7 +8087,7 @@
         <v>1</v>
       </c>
       <c r="V5">
-        <v>3.100123456E+16</v>
+        <v>3.100323456E+16</v>
       </c>
       <c r="X5">
         <v>278992785243</v>
@@ -8131,7 +8131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B01DC832-5353-409E-939C-876616421212}">
   <dimension ref="A1:T8"/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0">
+    <sheetView topLeftCell="J1" zoomScale="137" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -8168,28 +8168,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
     </row>
     <row r="2" spans="1:20" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -8405,18 +8405,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
@@ -8512,18 +8512,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>296</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" ht="15.6">
       <c r="A2" s="12" t="s">
